--- a/DATA.new.xlsx
+++ b/DATA.new.xlsx
@@ -273,8 +273,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -292,9 +330,47 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1001,7 +1077,7 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="W2" sqref="W2:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2331,7 +2407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2339,16 +2415,20 @@
         <f>16384/200</f>
         <v>81.92</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2356,8 +2436,10 @@
         <f>6.022E+23</f>
         <v>6.0220000000000003E+23</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2365,19 +2447,22 @@
         <f>26.98</f>
         <v>26.98</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21">
         <v>13</v>
       </c>
+      <c r="N21" s="9"/>
       <c r="O21" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2387,8 +2472,10 @@
       <c r="C22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2398,16 +2485,20 @@
       <c r="C23">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
         <v>3.81</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2419,8 +2510,10 @@
         <f>POWER(3.81,2)/(2*POWER(36.1,3))*0.2</f>
         <v>3.0855198566692801E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -2432,8 +2525,10 @@
         <f>M2</f>
         <v>779.37144102001753</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2451,11 +2546,15 @@
       <c r="E27" s="7">
         <v>7.8300000000000001E+22</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" customFormat="1">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -2465,8 +2564,10 @@
       <c r="C29" s="2">
         <v>1.5354000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" customFormat="1">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2577,10 @@
       <c r="C30" s="2">
         <v>0.89865600000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="38" spans="1:8" customFormat="1">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2500,7 +2603,7 @@
         <v>27.5611</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" customFormat="1">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2523,7 +2626,7 @@
         <v>26.801300000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" customFormat="1">
       <c r="A40" t="s">
         <v>57</v>
       </c>

--- a/DATA.new.xlsx
+++ b/DATA.new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showObjects="none" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="60" windowWidth="25000" windowHeight="17300" tabRatio="500" activeTab="2"/>
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="110304" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Element</t>
   </si>
@@ -201,17 +201,35 @@
   </si>
   <si>
     <t>Signal in Peak</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Chi 2</t>
+  </si>
+  <si>
+    <t>DOF</t>
+  </si>
+  <si>
+    <t>Chi 2/ DOF</t>
+  </si>
+  <si>
+    <t>Cross Sec</t>
+  </si>
+  <si>
+    <t>Chi2/ DOF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -234,20 +252,6 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -273,50 +277,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -329,52 +293,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="41">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -697,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -829,7 +757,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -837,14 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1065,7 +993,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -1073,26 +1001,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="10.83203125" style="9"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="9"/>
-    <col min="23" max="23" width="10.83203125" style="11"/>
+    <col min="17" max="17" width="10.83203125" style="14"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="9"/>
+    <col min="24" max="24" width="10.83203125" style="11"/>
+    <col min="25" max="25" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1">
+    <row r="1" spans="1:26" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1141,32 +1071,38 @@
       <c r="P1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1193,11 +1129,11 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2">
-        <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/(B17*Q2)</f>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/(B17*R2)</f>
         <v>466991.61160205182</v>
       </c>
       <c r="K2" s="2">
-        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2/Q2,2)+POWER(G2*D2/Q2,2)+POWER(C2*G2*R2/POWER(Q2,2),2)))</f>
+        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2/R2,2)+POWER(G2*D2/R2,2)+POWER(C2*G2*S2/POWER(R2,2),2)))</f>
         <v>46762.286461201053</v>
       </c>
       <c r="L2" s="2">
@@ -1220,39 +1156,47 @@
         <f>0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>0.67100000000000004</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="13">
+        <f>POWER((N2-P2)/O2,2)</f>
+        <v>0.49948300312974442</v>
+      </c>
+      <c r="R2" s="4">
         <v>0.38429999999999997</v>
       </c>
-      <c r="R2" s="4">
-        <f>Q2*0.05</f>
+      <c r="S2" s="4">
+        <f>R2*0.05</f>
         <v>1.9214999999999999E-2</v>
       </c>
-      <c r="S2" s="2">
-        <f>L2/(L2*Q2*B27*B25)</f>
+      <c r="T2" s="2">
+        <f>L2/(L2*R2*B27*B25)</f>
         <v>9.4915827816779713E-23</v>
       </c>
-      <c r="T2" s="11">
-        <f>S2*1E+24</f>
+      <c r="U2" s="11">
+        <f>T2*1E+24</f>
         <v>94.915827816779711</v>
       </c>
-      <c r="U2" s="2">
-        <f>SQRT(POWER(M2/(L2*Q2*B27*B25),2)+POWER(L2*M2/(POWER(L2,2)*Q2*B27*B25),2)+POWER(L2*C27/(L2*Q2*POWER(B27,2)*B25),2)+POWER(L2*C25/(L2*Q2*B27*POWER(B25,2)),2))</f>
+      <c r="V2" s="2">
+        <f>SQRT(POWER(M2/(L2*R2*B27*B25),2)+POWER(L2*M2/(POWER(L2,2)*R2*B27*B25),2)+POWER(L2*C27/(L2*R2*POWER(B27,2)*B25),2)+POWER(L2*C25/(L2*R2*B27*POWER(B25,2)),2))</f>
         <v>1.6454934815612501E-23</v>
       </c>
-      <c r="V2" s="11">
-        <f>U2*1E+24</f>
+      <c r="W2" s="11">
+        <f>V2*1E+24</f>
         <v>16.4549348156125</v>
       </c>
-      <c r="W2" s="11">
-        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(X2,2)*(X2+1/X2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
+      <c r="X2" s="11">
+        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Z2,2)*(Z2+1/Z2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
         <v>7.9384090788001488E-2</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Y2" s="13">
+        <f>POWER((U2-X2)/W2,2)</f>
+        <v>33.216830283527621</v>
+      </c>
+      <c r="Z2" s="2">
         <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1301,46 +1245,54 @@
         <v>0.64402966968216013</v>
       </c>
       <c r="O3" s="11">
-        <f t="shared" ref="O3:O15" si="3">SQRT(POWER(F3/11540.4,2)+POWER((-61.6-E3)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
+        <f>SQRT(POWER(F3/11540.4,2)+POWER((-61.6-E3)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
         <v>1.6978129586738197E-3</v>
       </c>
       <c r="P3" s="11">
-        <f t="shared" ref="P3:P15" si="4">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+        <f>0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.65789319321946138</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="13">
+        <f>POWER((N3-P3)/O3,2)</f>
+        <v>66.675696353267966</v>
+      </c>
+      <c r="R3" s="4">
         <v>0.40589999999999998</v>
       </c>
-      <c r="R3" s="4">
-        <f t="shared" ref="R3:R15" si="5">Q3*0.05</f>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S15" si="3">R3*0.05</f>
         <v>2.0295000000000001E-2</v>
       </c>
-      <c r="S3" s="2">
-        <f>L3/(L2*Q3*B27*B25)</f>
+      <c r="T3" s="2">
+        <f>L3/(L2*R3*B27*B25)</f>
         <v>1.1027686396938746E-25</v>
       </c>
-      <c r="T3" s="11">
-        <f>S3*1E+24</f>
+      <c r="U3" s="11">
+        <f>T3*1E+24</f>
         <v>0.11027686396938746</v>
       </c>
-      <c r="U3" s="2">
-        <f>SQRT(POWER(M3/(L2*Q3*B27*B25),2)+POWER(L3*M2/(POWER(L2,2)*Q3*B27*B25),2)+POWER(L3*C27/(L2*Q3*POWER(B27,2)*B25),2)+POWER(L3*C25/(L2*Q3*B27*POWER(B25,2)),2)+POWER(L3*R3/(L2*POWER(Q3,2)*B27*B25),2))</f>
+      <c r="V3" s="2">
+        <f>SQRT(POWER(M3/(L2*R3*B27*B25),2)+POWER(L3*M2/(POWER(L2,2)*R3*B27*B25),2)+POWER(L3*C27/(L2*R3*POWER(B27,2)*B25),2)+POWER(L3*C25/(L2*R3*B27*POWER(B25,2)),2)+POWER(L3*S3/(L2*POWER(R3,2)*B27*B25),2))</f>
         <v>2.460449021491582E-26</v>
       </c>
-      <c r="V3" s="11">
-        <f t="shared" ref="V3:V15" si="6">U3*1E+24</f>
+      <c r="W3" s="11">
+        <f t="shared" ref="W3:W15" si="4">V3*1E+24</f>
         <v>2.4604490214915817E-2</v>
       </c>
-      <c r="W3" s="11">
-        <f t="shared" ref="W3:W15" si="7">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(X3,2)*(X3+1/X3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
+      <c r="X3" s="11">
+        <f t="shared" ref="X3:X15" si="5">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Z3,2)*(Z3+1/Z3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
         <v>7.517740944578237E-2</v>
       </c>
-      <c r="X3" s="2">
-        <f t="shared" ref="X3:X15" si="8">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+      <c r="Y3" s="13">
+        <f t="shared" ref="Y3:Y15" si="6">POWER((U3-X3)/W3,2)</f>
+        <v>2.0350355107432589</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z15" si="7">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.98046675591573962</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1373,7 +1325,7 @@
         <v>5471.6150913806878</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K15" si="9">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
+        <f t="shared" ref="K4:K15" si="8">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
         <v>507.76705531487812</v>
       </c>
       <c r="L4" s="2">
@@ -1389,46 +1341,54 @@
         <v>0.61049010432913942</v>
       </c>
       <c r="O4" s="11">
+        <f>SQRT(POWER(F4/11540.4,2)+POWER((-61.6-E4)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
+        <v>9.5150740426510033E-4</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" ref="P4:P15" si="9">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A4))))</f>
+        <v>0.62182355639796505</v>
+      </c>
+      <c r="Q4" s="13">
+        <f t="shared" ref="Q4:Q15" si="10">POWER((N4-P4)/O4,2)</f>
+        <v>141.87310712665689</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="3"/>
-        <v>9.5150740426510033E-4</v>
-      </c>
-      <c r="P4" s="11">
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <f>L4/(L2*R4*B27*B25)</f>
+        <v>9.8520347671986592E-26</v>
+      </c>
+      <c r="U4" s="11">
+        <f>T4*1E+24</f>
+        <v>9.8520347671986586E-2</v>
+      </c>
+      <c r="V4" s="2">
+        <f>SQRT(POWER(M4/(L2*R4*B27*B25),2)+POWER(L4*M2/(POWER(L2,2)*R4*B27*B25),2)+POWER(L4*C27/(L2*R4*POWER(B27,2)*B25),2)+POWER(L4*C25/(L2*R4*B27*POWER(B25,2)),2)+POWER(L4*S4/(L2*POWER(R4,2)*B27*B25),2))</f>
+        <v>1.7385341299552656E-26</v>
+      </c>
+      <c r="W4" s="11">
         <f t="shared" si="4"/>
-        <v>0.62182355639796505</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0.43380000000000002</v>
-      </c>
-      <c r="R4" s="4">
+        <v>1.7385341299552656E-2</v>
+      </c>
+      <c r="X4" s="11">
         <f t="shared" si="5"/>
-        <v>2.1690000000000001E-2</v>
-      </c>
-      <c r="S4" s="2">
-        <f>L4/(L2*Q4*B27*B25)</f>
-        <v>9.8520347671986592E-26</v>
-      </c>
-      <c r="T4" s="11">
-        <f>S4*1E+24</f>
-        <v>9.8520347671986586E-2</v>
-      </c>
-      <c r="U4" s="2">
-        <f>SQRT(POWER(M4/(L2*Q4*B27*B25),2)+POWER(L4*M2/(POWER(L2,2)*Q4*B27*B25),2)+POWER(L4*C27/(L2*Q4*POWER(B27,2)*B25),2)+POWER(L4*C25/(L2*Q4*B27*POWER(B25,2)),2)+POWER(L4*R4/(L2*POWER(Q4,2)*B27*B25),2))</f>
-        <v>1.7385341299552656E-26</v>
-      </c>
-      <c r="V4" s="11">
+        <v>6.4384737830657068E-2</v>
+      </c>
+      <c r="Y4" s="13">
         <f t="shared" si="6"/>
-        <v>1.7385341299552656E-2</v>
-      </c>
-      <c r="W4" s="11">
-        <f t="shared" si="7"/>
-        <v>6.4384737830657068E-2</v>
-      </c>
-      <c r="X4" s="2">
-        <f t="shared" si="8"/>
+        <v>3.8552175489379357</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A4))))</f>
         <v>0.92671170849175111</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1461,7 +1421,7 @@
         <v>6506.5066696156164</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>666.9167363776935</v>
       </c>
       <c r="L5" s="2">
@@ -1477,46 +1437,54 @@
         <v>0.56365637239610422</v>
       </c>
       <c r="O5" s="11">
+        <f t="shared" ref="O5:O15" si="11">SQRT(POWER(F5/11540.4,2)+POWER((-61.6-E5)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
+        <v>8.6660158045304321E-4</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="9"/>
+        <v>0.57072967889430926</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="10"/>
+        <v>66.620210548990059</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="3"/>
-        <v>8.6660158045304321E-4</v>
-      </c>
-      <c r="P5" s="11">
+        <v>2.2409999999999999E-2</v>
+      </c>
+      <c r="T5" s="2">
+        <f>L5/(L2*R5*B27*B25)</f>
+        <v>8.5042738219826426E-26</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" ref="U5:U15" si="12">T5*1E+24</f>
+        <v>8.5042738219826428E-2</v>
+      </c>
+      <c r="V5" s="2">
+        <f>SQRT(POWER(M5/(L2*R5*B27*B25),2)+POWER(L5*M2/(POWER(L2,2)*R5*B27*B25),2)+POWER(L5*C27/(L2*R5*POWER(B27,2)*B25),2)+POWER(L5*C25/(L2*R5*B27*POWER(B25,2)),2)+POWER(L5*S5/(L2*POWER(R5,2)*B27*B25),2))</f>
+        <v>1.5456754410878626E-26</v>
+      </c>
+      <c r="W5" s="11">
         <f t="shared" si="4"/>
-        <v>0.57072967889430926</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0.44819999999999999</v>
-      </c>
-      <c r="R5" s="4">
+        <v>1.5456754410878626E-2</v>
+      </c>
+      <c r="X5" s="11">
         <f t="shared" si="5"/>
-        <v>2.2409999999999999E-2</v>
-      </c>
-      <c r="S5" s="2">
-        <f>L5/(L2*Q5*B27*B25)</f>
-        <v>8.5042738219826426E-26</v>
-      </c>
-      <c r="T5" s="11">
-        <f t="shared" ref="T5:T15" si="10">S5*1E+24</f>
-        <v>8.5042738219826428E-2</v>
-      </c>
-      <c r="U5" s="2">
-        <f>SQRT(POWER(M5/(L2*Q5*B27*B25),2)+POWER(L5*M2/(POWER(L2,2)*Q5*B27*B25),2)+POWER(L5*C27/(L2*Q5*POWER(B27,2)*B25),2)+POWER(L5*C25/(L2*Q5*B27*POWER(B25,2)),2)+POWER(L5*R5/(L2*POWER(Q5,2)*B27*B25),2))</f>
-        <v>1.5456754410878626E-26</v>
-      </c>
-      <c r="V5" s="11">
+        <v>5.1006364300052669E-2</v>
+      </c>
+      <c r="Y5" s="13">
         <f t="shared" si="6"/>
-        <v>1.5456754410878626E-2</v>
-      </c>
-      <c r="W5" s="11">
+        <v>4.8489751573456603</v>
+      </c>
+      <c r="Z5" s="2">
         <f t="shared" si="7"/>
-        <v>5.1006364300052669E-2</v>
-      </c>
-      <c r="X5" s="2">
-        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1549,7 +1517,7 @@
         <v>7566.2370917221124</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>879.10496572965008</v>
       </c>
       <c r="L6" s="2">
@@ -1565,46 +1533,54 @@
         <v>0.44842466465633773</v>
       </c>
       <c r="O6" s="11">
+        <f t="shared" si="11"/>
+        <v>1.2322926807150111E-3</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="9"/>
+        <v>0.51346870699924607</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="10"/>
+        <v>2786.0397585627561</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.5544</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="3"/>
-        <v>1.2322926807150111E-3</v>
-      </c>
-      <c r="P6" s="11">
+        <v>2.7720000000000002E-2</v>
+      </c>
+      <c r="T6" s="2">
+        <f>L6/(L2*R6*B27*B25)</f>
+        <v>4.9199939327068512E-26</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="12"/>
+        <v>4.9199939327068509E-2</v>
+      </c>
+      <c r="V6" s="2">
+        <f>SQRT(POWER(M6/(L2*R6*B27*B25),2)+POWER(L6*M2/(POWER(L2,2)*R6*B27*B25),2)+POWER(L6*C27/(L2*R6*POWER(B27,2)*B25),2)+POWER(L6*C25/(L2*R6*B27*POWER(B25,2)),2)+POWER(L6*S6/(L2*POWER(R6,2)*B27*B25),2))</f>
+        <v>9.3385906482735598E-27</v>
+      </c>
+      <c r="W6" s="11">
         <f t="shared" si="4"/>
-        <v>0.51346870699924607</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0.5544</v>
-      </c>
-      <c r="R6" s="4">
+        <v>9.3385906482735589E-3</v>
+      </c>
+      <c r="X6" s="11">
         <f t="shared" si="5"/>
-        <v>2.7720000000000002E-2</v>
-      </c>
-      <c r="S6" s="2">
-        <f>L6/(L2*Q6*B27*B25)</f>
-        <v>4.9199939327068512E-26</v>
-      </c>
-      <c r="T6" s="11">
-        <f t="shared" si="10"/>
-        <v>4.9199939327068509E-2</v>
-      </c>
-      <c r="U6" s="2">
-        <f>SQRT(POWER(M6/(L2*Q6*B27*B25),2)+POWER(L6*M2/(POWER(L2,2)*Q6*B27*B25),2)+POWER(L6*C27/(L2*Q6*POWER(B27,2)*B25),2)+POWER(L6*C25/(L2*Q6*B27*POWER(B25,2)),2)+POWER(L6*R6/(L2*POWER(Q6,2)*B27*B25),2))</f>
-        <v>9.3385906482735598E-27</v>
-      </c>
-      <c r="V6" s="11">
+        <v>3.855616972340576E-2</v>
+      </c>
+      <c r="Y6" s="13">
         <f t="shared" si="6"/>
-        <v>9.3385906482735589E-3</v>
-      </c>
-      <c r="W6" s="11">
-        <f t="shared" si="7"/>
-        <v>3.8556169723405753E-2</v>
-      </c>
-      <c r="X6" s="2">
-        <f t="shared" si="8"/>
+        <v>1.2990571357382013</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A6))))</f>
         <v>0.76522907153389874</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1637,7 +1613,7 @@
         <v>6731.3518427645222</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>940.65945202885302</v>
       </c>
       <c r="L7" s="2">
@@ -1653,46 +1629,54 @@
         <v>0.40097396970642274</v>
       </c>
       <c r="O7" s="11">
+        <f t="shared" si="11"/>
+        <v>1.24152912099627E-3</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="9"/>
+        <v>0.45695018268506399</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="10"/>
+        <v>2032.7932277917278</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="3"/>
-        <v>1.24152912099627E-3</v>
-      </c>
-      <c r="P7" s="11">
+        <v>3.0464999999999999E-2</v>
+      </c>
+      <c r="T7" s="2">
+        <f>L7/(L2*R7*B27*B25)</f>
+        <v>3.4516841583037877E-26</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="12"/>
+        <v>3.4516841583037874E-2</v>
+      </c>
+      <c r="V7" s="2">
+        <f>SQRT(POWER(M7/(L2*R7*B27*B25),2)+POWER(L7*M2/(POWER(L2,2)*R7*B27*B25),2)+POWER(L7*C27/(L2*R7*POWER(B27,2)*B25),2)+POWER(L7*C25/(L2*R7*B27*POWER(B25,2)),2)+POWER(L7*S7/(L2*POWER(R7,2)*B27*B25),2))</f>
+        <v>7.0785570531895322E-27</v>
+      </c>
+      <c r="W7" s="11">
         <f t="shared" si="4"/>
-        <v>0.45695018268506399</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0.60929999999999995</v>
-      </c>
-      <c r="R7" s="4">
+        <v>7.0785570531895319E-3</v>
+      </c>
+      <c r="X7" s="11">
         <f t="shared" si="5"/>
-        <v>3.0464999999999999E-2</v>
-      </c>
-      <c r="S7" s="2">
-        <f>L7/(L2*Q7*B27*B25)</f>
-        <v>3.4516841583037877E-26</v>
-      </c>
-      <c r="T7" s="11">
-        <f t="shared" si="10"/>
-        <v>3.4516841583037874E-2</v>
-      </c>
-      <c r="U7" s="2">
-        <f>SQRT(POWER(M7/(L2*Q7*B27*B25),2)+POWER(L7*M2/(POWER(L2,2)*Q7*B27*B25),2)+POWER(L7*C27/(L2*Q7*POWER(B27,2)*B25),2)+POWER(L7*C25/(L2*Q7*B27*POWER(B25,2)),2)+POWER(L7*R7/(L2*POWER(Q7,2)*B27*B25),2))</f>
-        <v>7.0785570531895322E-27</v>
-      </c>
-      <c r="V7" s="11">
+        <v>2.8763760580229697E-2</v>
+      </c>
+      <c r="Y7" s="13">
         <f t="shared" si="6"/>
-        <v>7.0785570531895319E-3</v>
-      </c>
-      <c r="W7" s="11">
+        <v>0.66055883269850346</v>
+      </c>
+      <c r="Z7" s="2">
         <f t="shared" si="7"/>
-        <v>2.8763760580229697E-2</v>
-      </c>
-      <c r="X7" s="2">
-        <f t="shared" si="8"/>
         <v>0.68099878194495367</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1725,7 +1709,7 @@
         <v>7493.7231595451349</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1142.0838563081095</v>
       </c>
       <c r="L8" s="2">
@@ -1741,46 +1725,54 @@
         <v>0.35727271151779832</v>
       </c>
       <c r="O8" s="11">
+        <f t="shared" si="11"/>
+        <v>1.3970171498388832E-3</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="9"/>
+        <v>0.40527245200170919</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="10"/>
+        <v>1180.5225941711722</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="3"/>
-        <v>1.3970171498388832E-3</v>
-      </c>
-      <c r="P8" s="11">
+        <v>3.3120000000000004E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <f>L8/(L2*R8*B27*B25)</f>
+        <v>2.9454795453138688E-26</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="12"/>
+        <v>2.9454795453138689E-2</v>
+      </c>
+      <c r="V8" s="2">
+        <f>SQRT(POWER(M8/(L2*R8*B27*B25),2)+POWER(L8*M2/(POWER(L2,2)*R8*B27*B25),2)+POWER(L8*C27/(L2*R8*POWER(B27,2)*B25),2)+POWER(L8*C25/(L2*R8*B27*POWER(B25,2)),2)+POWER(L8*S8/(L2*POWER(R8,2)*B27*B25),2))</f>
+        <v>6.3005202249277359E-27</v>
+      </c>
+      <c r="W8" s="11">
         <f t="shared" si="4"/>
-        <v>0.40527245200170919</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0.66239999999999999</v>
-      </c>
-      <c r="R8" s="4">
+        <v>6.3005202249277357E-3</v>
+      </c>
+      <c r="X8" s="11">
         <f t="shared" si="5"/>
-        <v>3.3120000000000004E-2</v>
-      </c>
-      <c r="S8" s="2">
-        <f>L8/(L2*Q8*B27*B25)</f>
-        <v>2.9454795453138688E-26</v>
-      </c>
-      <c r="T8" s="11">
-        <f t="shared" si="10"/>
-        <v>2.9454795453138689E-2</v>
-      </c>
-      <c r="U8" s="2">
-        <f>SQRT(POWER(M8/(L2*Q8*B27*B25),2)+POWER(L8*M2/(POWER(L2,2)*Q8*B27*B25),2)+POWER(L8*C27/(L2*Q8*POWER(B27,2)*B25),2)+POWER(L8*C25/(L2*Q8*B27*POWER(B25,2)),2)+POWER(L8*R8/(L2*POWER(Q8,2)*B27*B25),2))</f>
-        <v>6.3005202249277359E-27</v>
-      </c>
-      <c r="V8" s="11">
+        <v>2.18590607833666E-2</v>
+      </c>
+      <c r="Y8" s="13">
         <f t="shared" si="6"/>
-        <v>6.3005202249277357E-3</v>
-      </c>
-      <c r="W8" s="11">
+        <v>1.453405340120121</v>
+      </c>
+      <c r="Z8" s="2">
         <f t="shared" si="7"/>
-        <v>2.18590607833666E-2</v>
-      </c>
-      <c r="X8" s="2">
-        <f t="shared" si="8"/>
         <v>0.60398278986841902</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1829,46 +1821,54 @@
         <v>0.32163529860316797</v>
       </c>
       <c r="O9" s="11">
+        <f t="shared" si="11"/>
+        <v>1.5676468023221558E-3</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="9"/>
+        <v>0.36020200208327863</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="10"/>
+        <v>605.24135615808143</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="3"/>
-        <v>1.5676468023221558E-3</v>
-      </c>
-      <c r="P9" s="11">
+        <v>3.4875000000000003E-2</v>
+      </c>
+      <c r="T9" s="2">
+        <f>L9/(L2*R9*B27*B25)</f>
+        <v>2.4515898006132092E-26</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="12"/>
+        <v>2.4515898006132093E-2</v>
+      </c>
+      <c r="V9" s="2">
+        <f>SQRT(POWER(M9/(L2*R9*B27*B25),2)+POWER(L9*M2/(POWER(L2,2)*R9*B27*B25),2)+POWER(L9*C27/(L2*R9*POWER(B27,2)*B25),2)+POWER(L9*C25/(L2*R9*B27*POWER(B25,2)),2)+POWER(L9*S9/(L2*POWER(R9,2)*B27*B25),2))</f>
+        <v>5.692866681994198E-27</v>
+      </c>
+      <c r="W9" s="11">
         <f t="shared" si="4"/>
-        <v>0.36020200208327863</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="R9" s="4">
+        <v>5.6928666819941976E-3</v>
+      </c>
+      <c r="X9" s="11">
         <f t="shared" si="5"/>
-        <v>3.4875000000000003E-2</v>
-      </c>
-      <c r="S9" s="2">
-        <f>L9/(L2*Q9*B27*B25)</f>
-        <v>2.4515898006132092E-26</v>
-      </c>
-      <c r="T9" s="11">
-        <f t="shared" si="10"/>
-        <v>2.4515898006132093E-2</v>
-      </c>
-      <c r="U9" s="2">
-        <f>SQRT(POWER(M9/(L2*Q9*B27*B25),2)+POWER(L9*M2/(POWER(L2,2)*Q9*B27*B25),2)+POWER(L9*C27/(L2*Q9*POWER(B27,2)*B25),2)+POWER(L9*C25/(L2*Q9*B27*POWER(B25,2)),2)+POWER(L9*R9/(L2*POWER(Q9,2)*B27*B25),2))</f>
-        <v>5.692866681994198E-27</v>
-      </c>
-      <c r="V9" s="11">
+        <v>1.7347295999573225E-2</v>
+      </c>
+      <c r="Y9" s="13">
         <f t="shared" si="6"/>
-        <v>5.6928666819941976E-3</v>
-      </c>
-      <c r="W9" s="11">
+        <v>1.5856484672278772</v>
+      </c>
+      <c r="Z9" s="2">
         <f t="shared" si="7"/>
-        <v>1.7347295999573225E-2</v>
-      </c>
-      <c r="X9" s="2">
-        <f t="shared" si="8"/>
         <v>0.53681371398402178</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>18877.566327660188</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3371.6901474905908</v>
       </c>
       <c r="L10" s="2">
@@ -1917,46 +1917,54 @@
         <v>0.28177099580603793</v>
       </c>
       <c r="O10" s="11">
+        <f t="shared" si="11"/>
+        <v>9.8566059400125375E-4</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="9"/>
+        <v>0.32203280762368441</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="10"/>
+        <v>1668.5216299566375</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="3"/>
-        <v>9.8566059400125375E-4</v>
-      </c>
-      <c r="P10" s="11">
+        <v>3.6630000000000003E-2</v>
+      </c>
+      <c r="T10" s="2">
+        <f>L10/(L2*R10*B27*B25)</f>
+        <v>1.6772499562455111E-26</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="12"/>
+        <v>1.677249956245511E-2</v>
+      </c>
+      <c r="V10" s="2">
+        <f>SQRT(POWER(M10/(L2*R10*B27*B25),2)+POWER(L10*M2/(POWER(L2,2)*R10*B27*B25),2)+POWER(L10*C27/(L2*R10*POWER(B27,2)*B25),2)+POWER(L10*C25/(L2*R10*B27*POWER(B25,2)),2)+POWER(L10*S10/(L2*POWER(R10,2)*B27*B25),2))</f>
+        <v>3.913019391400378E-27</v>
+      </c>
+      <c r="W10" s="11">
         <f t="shared" si="4"/>
-        <v>0.32203280762368441</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0.73260000000000003</v>
-      </c>
-      <c r="R10" s="4">
+        <v>3.9130193914003776E-3</v>
+      </c>
+      <c r="X10" s="11">
         <f t="shared" si="5"/>
-        <v>3.6630000000000003E-2</v>
-      </c>
-      <c r="S10" s="2">
-        <f>L10/(L2*Q10*B27*B25)</f>
-        <v>1.6772499562455111E-26</v>
-      </c>
-      <c r="T10" s="11">
-        <f t="shared" si="10"/>
-        <v>1.677249956245511E-2</v>
-      </c>
-      <c r="U10" s="2">
-        <f>SQRT(POWER(M10/(L2*Q10*B27*B25),2)+POWER(L10*M2/(POWER(L2,2)*Q10*B27*B25),2)+POWER(L10*C27/(L2*Q10*POWER(B27,2)*B25),2)+POWER(L10*C25/(L2*Q10*B27*POWER(B25,2)),2)+POWER(L10*R10/(L2*POWER(Q10,2)*B27*B25),2))</f>
-        <v>3.913019391400378E-27</v>
-      </c>
-      <c r="V10" s="11">
+        <v>1.4570392197332485E-2</v>
+      </c>
+      <c r="Y10" s="13">
         <f t="shared" si="6"/>
-        <v>3.9130193914003776E-3</v>
-      </c>
-      <c r="W10" s="11">
+        <v>0.31670358441978702</v>
+      </c>
+      <c r="Z10" s="2">
         <f t="shared" si="7"/>
-        <v>1.4570392197332485E-2</v>
-      </c>
-      <c r="X10" s="2">
-        <f t="shared" si="8"/>
         <v>0.4799296685896936</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1989,7 +1997,7 @@
         <v>24188.804550639416</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3523.0050607091171</v>
       </c>
       <c r="L11" s="2">
@@ -2005,46 +2013,54 @@
         <v>0.27585612283802985</v>
       </c>
       <c r="O11" s="11">
+        <f t="shared" si="11"/>
+        <v>8.6802814005650303E-4</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="9"/>
+        <v>0.29030620042535898</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="10"/>
+        <v>277.12311298940296</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="3"/>
-        <v>8.6802814005650303E-4</v>
-      </c>
-      <c r="P11" s="11">
+        <v>3.8295000000000003E-2</v>
+      </c>
+      <c r="T11" s="2">
+        <f>L11/(L2*R11*B27*B25)</f>
+        <v>1.3704707646793601E-26</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" si="12"/>
+        <v>1.37047076467936E-2</v>
+      </c>
+      <c r="V11" s="2">
+        <f>SQRT(POWER(M11/(L2*R11*B27*B25),2)+POWER(L11*M2/(POWER(L2,2)*R11*B27*B25),2)+POWER(L11*C27/(L2*R11*POWER(B27,2)*B25),2)+POWER(L11*C25/(L2*R11*B27*POWER(B25,2)),2)+POWER(L11*S11/(L2*POWER(R11,2)*B27*B25),2))</f>
+        <v>2.8662378652951461E-27</v>
+      </c>
+      <c r="W11" s="11">
         <f t="shared" si="4"/>
-        <v>0.29030620042535898</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0.76590000000000003</v>
-      </c>
-      <c r="R11" s="4">
+        <v>2.8662378652951461E-3</v>
+      </c>
+      <c r="X11" s="11">
         <f t="shared" si="5"/>
-        <v>3.8295000000000003E-2</v>
-      </c>
-      <c r="S11" s="2">
-        <f>L11/(L2*Q11*B27*B25)</f>
-        <v>1.3704707646793601E-26</v>
-      </c>
-      <c r="T11" s="11">
-        <f t="shared" si="10"/>
-        <v>1.37047076467936E-2</v>
-      </c>
-      <c r="U11" s="2">
-        <f>SQRT(POWER(M11/(L2*Q11*B27*B25),2)+POWER(L11*M2/(POWER(L2,2)*Q11*B27*B25),2)+POWER(L11*C27/(L2*Q11*POWER(B27,2)*B25),2)+POWER(L11*C25/(L2*Q11*B27*POWER(B25,2)),2)+POWER(L11*R11/(L2*POWER(Q11,2)*B27*B25),2))</f>
-        <v>2.8662378652951461E-27</v>
-      </c>
-      <c r="V11" s="11">
+        <v>1.2957388325761274E-2</v>
+      </c>
+      <c r="Y11" s="13">
         <f t="shared" si="6"/>
-        <v>2.8662378652951461E-3</v>
-      </c>
-      <c r="W11" s="11">
+        <v>6.7981064833511393E-2</v>
+      </c>
+      <c r="Z11" s="2">
         <f t="shared" si="7"/>
-        <v>1.2957388325761274E-2</v>
-      </c>
-      <c r="X11" s="2">
-        <f t="shared" si="8"/>
         <v>0.43264709452363481</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>-10</v>
       </c>
@@ -2077,7 +2093,7 @@
         <v>2110.9021481650648</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>343.74529963574275</v>
       </c>
       <c r="L12" s="2">
@@ -2093,46 +2109,54 @@
         <v>0.56815621642230774</v>
       </c>
       <c r="O12" s="11">
+        <f t="shared" si="11"/>
+        <v>1.6444779731217909E-3</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="9"/>
+        <v>0.65789319321946138</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="10"/>
+        <v>2977.7398092537815</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="3"/>
-        <v>1.6444779731217909E-3</v>
-      </c>
-      <c r="P12" s="11">
+        <v>2.3040000000000001E-2</v>
+      </c>
+      <c r="T12" s="2">
+        <f>L12/(L2*R12*B27*B25)</f>
+        <v>1.0734376676078054E-25</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="12"/>
+        <v>0.10734376676078054</v>
+      </c>
+      <c r="V12" s="2">
+        <f>SQRT(POWER(M12/(L2*R12*B27*B25),2)+POWER(L12*M2/(POWER(L2,2)*R12*B27*B25),2)+POWER(L12*C27/(L2*R12*POWER(B27,2)*B25),2)+POWER(L12*C25/(L2*R12*B27*POWER(B25,2)),2)+POWER(L12*S12/(L2*POWER(R12,2)*B27*B25),2))</f>
+        <v>2.3772614603616846E-26</v>
+      </c>
+      <c r="W12" s="11">
         <f t="shared" si="4"/>
-        <v>0.65789319321946138</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0.46079999999999999</v>
-      </c>
-      <c r="R12" s="4">
+        <v>2.3772614603616845E-2</v>
+      </c>
+      <c r="X12" s="11">
         <f t="shared" si="5"/>
-        <v>2.3040000000000001E-2</v>
-      </c>
-      <c r="S12" s="2">
-        <f>L12/(L2*Q12*B27*B25)</f>
-        <v>1.0734376676078054E-25</v>
-      </c>
-      <c r="T12" s="11">
-        <f t="shared" si="10"/>
-        <v>0.10734376676078054</v>
-      </c>
-      <c r="U12" s="2">
-        <f>SQRT(POWER(M12/(L2*Q12*B27*B25),2)+POWER(L12*M2/(POWER(L2,2)*Q12*B27*B25),2)+POWER(L12*C27/(L2*Q12*POWER(B27,2)*B25),2)+POWER(L12*C25/(L2*Q12*B27*POWER(B25,2)),2)+POWER(L12*R12/(L2*POWER(Q12,2)*B27*B25),2))</f>
-        <v>2.3772614603616846E-26</v>
-      </c>
-      <c r="V12" s="11">
+        <v>7.517740944578237E-2</v>
+      </c>
+      <c r="Y12" s="13">
         <f t="shared" si="6"/>
-        <v>2.3772614603616845E-2</v>
-      </c>
-      <c r="W12" s="11">
+        <v>1.8308377746029338</v>
+      </c>
+      <c r="Z12" s="2">
         <f t="shared" si="7"/>
-        <v>7.517740944578237E-2</v>
-      </c>
-      <c r="X12" s="2">
-        <f t="shared" si="8"/>
         <v>0.98046675591573962</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>-20</v>
       </c>
@@ -2165,7 +2189,7 @@
         <v>5098.508161576673</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>576.79132013326102</v>
       </c>
       <c r="L13" s="2">
@@ -2181,46 +2205,54 @@
         <v>0.53572753110810722</v>
       </c>
       <c r="O13" s="11">
+        <f t="shared" si="11"/>
+        <v>1.1035365174744559E-3</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="9"/>
+        <v>0.62182355639796505</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="10"/>
+        <v>6086.8526192393801</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="3"/>
-        <v>1.1035365174744559E-3</v>
-      </c>
-      <c r="P13" s="11">
+        <v>2.4390000000000002E-2</v>
+      </c>
+      <c r="T13" s="2">
+        <f>L13/(L2*R13*B27*B25)</f>
+        <v>8.1639675082086461E-26</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="12"/>
+        <v>8.1639675082086458E-2</v>
+      </c>
+      <c r="V13" s="2">
+        <f>SQRT(POWER(M13/(L2*R13*B27*B25),2)+POWER(L13*M2/(POWER(L2,2)*R13*B27*B25),2)+POWER(L13*C27/(L2*R13*POWER(B27,2)*B25),2)+POWER(L13*C25/(L2*R13*B27*POWER(B25,2)),2)+POWER(L13*S13/(L2*POWER(R13,2)*B27*B25),2))</f>
+        <v>1.5344371520184826E-26</v>
+      </c>
+      <c r="W13" s="11">
         <f t="shared" si="4"/>
-        <v>0.62182355639796505</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0.48780000000000001</v>
-      </c>
-      <c r="R13" s="4">
+        <v>1.5344371520184827E-2</v>
+      </c>
+      <c r="X13" s="11">
         <f t="shared" si="5"/>
-        <v>2.4390000000000002E-2</v>
-      </c>
-      <c r="S13" s="2">
-        <f>L13/(L2*Q13*B27*B25)</f>
-        <v>8.1639675082086461E-26</v>
-      </c>
-      <c r="T13" s="11">
-        <f t="shared" si="10"/>
-        <v>8.1639675082086458E-2</v>
-      </c>
-      <c r="U13" s="2">
-        <f>SQRT(POWER(M13/(L2*Q13*B27*B25),2)+POWER(L13*M2/(POWER(L2,2)*Q13*B27*B25),2)+POWER(L13*C27/(L2*Q13*POWER(B27,2)*B25),2)+POWER(L13*C25/(L2*Q13*B27*POWER(B25,2)),2)+POWER(L13*R13/(L2*POWER(Q13,2)*B27*B25),2))</f>
-        <v>1.5344371520184826E-26</v>
-      </c>
-      <c r="V13" s="11">
+        <v>6.4384737830657068E-2</v>
+      </c>
+      <c r="Y13" s="13">
         <f t="shared" si="6"/>
-        <v>1.5344371520184827E-2</v>
-      </c>
-      <c r="W13" s="11">
-        <f t="shared" si="7"/>
-        <v>6.4384737830657068E-2</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" si="8"/>
+        <v>1.2645283146307551</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A13))))</f>
         <v>0.92671170849175111</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>-30</v>
       </c>
@@ -2253,7 +2285,7 @@
         <v>6170.6500346086623</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>663.06653941579521</v>
       </c>
       <c r="L14" s="2">
@@ -2269,46 +2301,54 @@
         <v>0.53980711240511592</v>
       </c>
       <c r="O14" s="11">
+        <f t="shared" si="11"/>
+        <v>1.248187483494017E-3</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="9"/>
+        <v>0.57072967889430926</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="10"/>
+        <v>613.74987611528172</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="3"/>
-        <v>1.248187483494017E-3</v>
-      </c>
-      <c r="P14" s="11">
+        <v>2.3040000000000001E-2</v>
+      </c>
+      <c r="T14" s="2">
+        <f>L14/(L2*R14*B27*B25)</f>
+        <v>7.8447598655060789E-26</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="12"/>
+        <v>7.8447598655060791E-2</v>
+      </c>
+      <c r="V14" s="2">
+        <f>SQRT(POWER(M14/(L2*R14*B27*B25),2)+POWER(L14*M2/(POWER(L2,2)*R14*B27*B25),2)+POWER(L14*C27/(L2*R14*POWER(B27,2)*B25),2)+POWER(L14*C25/(L2*R14*B27*POWER(B25,2)),2))+POWER(L14*S14/(L2*POWER(R14,2)*B27*B25),2)</f>
+        <v>1.3939496969267884E-26</v>
+      </c>
+      <c r="W14" s="11">
         <f t="shared" si="4"/>
-        <v>0.57072967889430926</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0.46079999999999999</v>
-      </c>
-      <c r="R14" s="4">
+        <v>1.3939496969267884E-2</v>
+      </c>
+      <c r="X14" s="11">
         <f t="shared" si="5"/>
-        <v>2.3040000000000001E-2</v>
-      </c>
-      <c r="S14" s="2">
-        <f>L14/(L2*Q14*B27*B25)</f>
-        <v>7.8447598655060789E-26</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="10"/>
-        <v>7.8447598655060791E-2</v>
-      </c>
-      <c r="U14" s="2">
-        <f>SQRT(POWER(M14/(L2*Q14*B27*B25),2)+POWER(L14*M2/(POWER(L2,2)*Q14*B27*B25),2)+POWER(L14*C27/(L2*Q14*POWER(B27,2)*B25),2)+POWER(L14*C25/(L2*Q14*B27*POWER(B25,2)),2))+POWER(L14*R14/(L2*POWER(Q14,2)*B27*B25),2)</f>
-        <v>1.3939496969267884E-26</v>
-      </c>
-      <c r="V14" s="11">
+        <v>5.1006364300052669E-2</v>
+      </c>
+      <c r="Y14" s="13">
         <f t="shared" si="6"/>
-        <v>1.3939496969267884E-2</v>
-      </c>
-      <c r="W14" s="11">
+        <v>3.8753691885529231</v>
+      </c>
+      <c r="Z14" s="2">
         <f t="shared" si="7"/>
-        <v>5.1006364300052669E-2</v>
-      </c>
-      <c r="X14" s="2">
-        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>-40</v>
       </c>
@@ -2341,7 +2381,7 @@
         <v>8535.2667382780091</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>869.15658300412088</v>
       </c>
       <c r="L15" s="2">
@@ -2357,46 +2397,54 @@
         <v>0.49143790509861013</v>
       </c>
       <c r="O15" s="11">
+        <f t="shared" si="11"/>
+        <v>1.2328199505901207E-3</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="9"/>
+        <v>0.51346870699924607</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="10"/>
+        <v>319.34586923120071</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.504</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="3"/>
-        <v>1.2328199505901207E-3</v>
-      </c>
-      <c r="P15" s="11">
+        <v>2.52E-2</v>
+      </c>
+      <c r="T15" s="2">
+        <f>L15/(L2*R15*B27*B25)</f>
+        <v>6.1051228058312059E-26</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="12"/>
+        <v>6.1051228058312056E-2</v>
+      </c>
+      <c r="V15" s="2">
+        <f>SQRT(POWER(M15/(L2*R15*B27*B25),2)+POWER(L15*M2/(POWER(L2,2)*R15*B27*B25),2)+POWER(L15*C27/(L2*R15*POWER(B27,2)*B25),2)+POWER(L15*C25/(L2*R15*B27*POWER(B25,2)),2)+POWER(L15*S15/(L2*POWER(R15,2)*B27*B25),2))</f>
+        <v>1.1073256759218936E-26</v>
+      </c>
+      <c r="W15" s="11">
         <f t="shared" si="4"/>
-        <v>0.51346870699924607</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0.504</v>
-      </c>
-      <c r="R15" s="4">
+        <v>1.1073256759218936E-2</v>
+      </c>
+      <c r="X15" s="11">
         <f t="shared" si="5"/>
-        <v>2.52E-2</v>
-      </c>
-      <c r="S15" s="2">
-        <f>L15/(L2*Q15*B27*B25)</f>
-        <v>6.1051228058312059E-26</v>
-      </c>
-      <c r="T15" s="11">
-        <f t="shared" si="10"/>
-        <v>6.1051228058312056E-2</v>
-      </c>
-      <c r="U15" s="2">
-        <f>SQRT(POWER(M15/(L2*Q15*B27*B25),2)+POWER(L15*M2/(POWER(L2,2)*Q15*B27*B25),2)+POWER(L15*C27/(L2*Q15*POWER(B27,2)*B25),2)+POWER(L15*C25/(L2*Q15*B27*POWER(B25,2)),2)+POWER(L15*R15/(L2*POWER(Q15,2)*B27*B25),2))</f>
-        <v>1.1073256759218936E-26</v>
-      </c>
-      <c r="V15" s="11">
+        <v>3.855616972340576E-2</v>
+      </c>
+      <c r="Y15" s="13">
         <f t="shared" si="6"/>
-        <v>1.1073256759218936E-2</v>
-      </c>
-      <c r="W15" s="11">
+        <v>4.1268958344488551</v>
+      </c>
+      <c r="Z15" s="2">
         <f t="shared" si="7"/>
-        <v>3.8556169723405753E-2</v>
-      </c>
-      <c r="X15" s="2">
-        <f t="shared" si="8"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:26">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2407,7 +2455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" customFormat="1">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2415,20 +2463,16 @@
         <f>16384/200</f>
         <v>81.92</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" customFormat="1">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18">
         <v>2.7</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" customFormat="1">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2436,10 +2480,15 @@
         <f>6.022E+23</f>
         <v>6.0220000000000003E+23</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" customFormat="1">
+      <c r="H19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2447,22 +2496,45 @@
         <f>26.98</f>
         <v>26.98</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" customFormat="1">
+      <c r="H20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="4">
+        <f>SUM(Q2:Q15)</f>
+        <v>18823.598350501466</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="4">
+        <f>SUM(Y3:Y15)</f>
+        <v>27.220213754300325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21">
         <v>13</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="H21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21">
+        <v>13</v>
+      </c>
       <c r="O21" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:15" customFormat="1">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2472,10 +2544,22 @@
       <c r="C22">
         <v>0.1</v>
       </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" customFormat="1">
+      <c r="H22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22">
+        <f>I20/I21</f>
+        <v>1344.5427393215334</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22">
+        <f>K20/K21</f>
+        <v>2.0938625964846405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,20 +2569,16 @@
       <c r="C23">
         <v>0.2</v>
       </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" customFormat="1">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
         <v>3.81</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" customFormat="1">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2510,10 +2590,8 @@
         <f>POWER(3.81,2)/(2*POWER(36.1,3))*0.2</f>
         <v>3.0855198566692801E-5</v>
       </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" customFormat="1">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -2525,10 +2603,8 @@
         <f>M2</f>
         <v>779.37144102001753</v>
       </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" customFormat="1">
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2546,15 +2622,11 @@
       <c r="E27" s="7">
         <v>7.8300000000000001E+22</v>
       </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" customFormat="1">
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" customFormat="1">
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -2564,10 +2636,8 @@
       <c r="C29" s="2">
         <v>1.5354000000000001</v>
       </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="1:15" customFormat="1">
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2577,10 +2647,8 @@
       <c r="C30" s="2">
         <v>0.89865600000000001</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="38" spans="1:8" customFormat="1">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2603,7 +2671,7 @@
         <v>27.5611</v>
       </c>
     </row>
-    <row r="39" spans="1:8" customFormat="1">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2626,7 +2694,7 @@
         <v>26.801300000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" customFormat="1">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2650,11 +2718,11 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/DATA.new.xlsx
+++ b/DATA.new.xlsx
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1153,12 +1153,12 @@
         <v>1.2403024496755212E-4</v>
       </c>
       <c r="P2" s="11">
-        <f>0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
-        <v>0.67100000000000004</v>
+        <f t="shared" ref="P2:P15" si="0">0.662/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
+        <v>0.66200000000000003</v>
       </c>
       <c r="Q2" s="13">
         <f>POWER((N2-P2)/O2,2)</f>
-        <v>0.49948300312974442</v>
+        <v>5368.4470877477006</v>
       </c>
       <c r="R2" s="4">
         <v>0.38429999999999997</v>
@@ -1233,15 +1233,15 @@
         <v>315.34605191871367</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L15" si="0">J3/B3</f>
+        <f t="shared" ref="L3:L15" si="1">J3/B3</f>
         <v>9.5510751771421951</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M15" si="1">K3/B3</f>
+        <f t="shared" ref="M3:M15" si="2">K3/B3</f>
         <v>1.5767302595935684</v>
       </c>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N15" si="2">(E3+61.6)/11540.4</f>
+        <f t="shared" ref="N3:N15" si="3">(E3+61.6)/11540.4</f>
         <v>0.64402966968216013</v>
       </c>
       <c r="O3" s="11">
@@ -1249,18 +1249,18 @@
         <v>1.6978129586738197E-3</v>
       </c>
       <c r="P3" s="11">
-        <f>0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
-        <v>0.65789319321946138</v>
+        <f t="shared" si="0"/>
+        <v>0.64923907907344114</v>
       </c>
       <c r="Q3" s="13">
         <f>POWER((N3-P3)/O3,2)</f>
-        <v>66.675696353267966</v>
+        <v>9.4145006372529156</v>
       </c>
       <c r="R3" s="4">
         <v>0.40589999999999998</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S15" si="3">R3*0.05</f>
+        <f t="shared" ref="S3:S15" si="4">R3*0.05</f>
         <v>2.0295000000000001E-2</v>
       </c>
       <c r="T3" s="2">
@@ -1276,19 +1276,19 @@
         <v>2.460449021491582E-26</v>
       </c>
       <c r="W3" s="11">
-        <f t="shared" ref="W3:W15" si="4">V3*1E+24</f>
+        <f t="shared" ref="W3:W15" si="5">V3*1E+24</f>
         <v>2.4604490214915817E-2</v>
       </c>
       <c r="X3" s="11">
-        <f t="shared" ref="X3:X15" si="5">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Z3,2)*(Z3+1/Z3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
+        <f t="shared" ref="X3:X15" si="6">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Z3,2)*(Z3+1/Z3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
         <v>7.517740944578237E-2</v>
       </c>
       <c r="Y3" s="13">
-        <f t="shared" ref="Y3:Y15" si="6">POWER((U3-X3)/W3,2)</f>
+        <f t="shared" ref="Y3:Y15" si="7">POWER((U3-X3)/W3,2)</f>
         <v>2.0350355107432589</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z15" si="7">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+        <f t="shared" ref="Z3:Z15" si="8">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.98046675591573962</v>
       </c>
     </row>
@@ -1325,19 +1325,19 @@
         <v>5471.6150913806878</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K15" si="8">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
+        <f t="shared" ref="K4:K15" si="9">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
         <v>507.76705531487812</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1193584856344803</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84627842552479682</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61049010432913942</v>
       </c>
       <c r="O4" s="11">
@@ -1345,18 +1345,18 @@
         <v>9.5150740426510033E-4</v>
       </c>
       <c r="P4" s="11">
-        <f t="shared" ref="P4:P15" si="9">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A4))))</f>
-        <v>0.62182355639796505</v>
+        <f t="shared" si="0"/>
+        <v>0.61408675979992799</v>
       </c>
       <c r="Q4" s="13">
         <f t="shared" ref="Q4:Q15" si="10">POWER((N4-P4)/O4,2)</f>
-        <v>141.87310712665689</v>
+        <v>14.288062189553155</v>
       </c>
       <c r="R4" s="4">
         <v>0.43380000000000002</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1690000000000001E-2</v>
       </c>
       <c r="T4" s="2">
@@ -1372,15 +1372,15 @@
         <v>1.7385341299552656E-26</v>
       </c>
       <c r="W4" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7385341299552656E-2</v>
       </c>
       <c r="X4" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4384737830657068E-2</v>
       </c>
       <c r="Y4" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8552175489379357</v>
       </c>
       <c r="Z4" s="2">
@@ -1421,7 +1421,7 @@
         <v>6506.5066696156164</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>666.9167363776935</v>
       </c>
       <c r="L5" s="2">
@@ -1429,11 +1429,11 @@
         <v>8.1331333370195207</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83364592047211683</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56365637239610422</v>
       </c>
       <c r="O5" s="11">
@@ -1441,18 +1441,18 @@
         <v>8.6660158045304321E-4</v>
       </c>
       <c r="P5" s="11">
-        <f t="shared" si="9"/>
-        <v>0.57072967889430926</v>
+        <f t="shared" si="0"/>
+        <v>0.56420536684069378</v>
       </c>
       <c r="Q5" s="13">
         <f t="shared" si="10"/>
-        <v>66.620210548990059</v>
+        <v>0.40132567609502384</v>
       </c>
       <c r="R5" s="4">
         <v>0.44819999999999999</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2409999999999999E-2</v>
       </c>
       <c r="T5" s="2">
@@ -1468,19 +1468,19 @@
         <v>1.5456754410878626E-26</v>
       </c>
       <c r="W5" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5456754410878626E-2</v>
       </c>
       <c r="X5" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1006364300052669E-2</v>
       </c>
       <c r="Y5" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8489751573456603</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
@@ -1517,11 +1517,11 @@
         <v>7566.2370917221124</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>879.10496572965008</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8201823782477788</v>
       </c>
       <c r="M6" s="2">
@@ -1529,7 +1529,7 @@
         <v>0.67623458902280775</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44842466465633773</v>
       </c>
       <c r="O6" s="11">
@@ -1537,18 +1537,18 @@
         <v>1.2322926807150111E-3</v>
       </c>
       <c r="P6" s="11">
-        <f t="shared" si="9"/>
-        <v>0.51346870699924607</v>
+        <f t="shared" si="0"/>
+        <v>0.50818177295976652</v>
       </c>
       <c r="Q6" s="13">
         <f t="shared" si="10"/>
-        <v>2786.0397585627561</v>
+        <v>2351.5347932953373</v>
       </c>
       <c r="R6" s="4">
         <v>0.5544</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7720000000000002E-2</v>
       </c>
       <c r="T6" s="2">
@@ -1564,15 +1564,15 @@
         <v>9.3385906482735598E-27</v>
       </c>
       <c r="W6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3385906482735589E-3</v>
       </c>
       <c r="X6" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.855616972340576E-2</v>
       </c>
       <c r="Y6" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2990571357382013</v>
       </c>
       <c r="Z6" s="2">
@@ -1613,7 +1613,7 @@
         <v>6731.3518427645222</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>940.65945202885302</v>
       </c>
       <c r="L7" s="2">
@@ -1621,11 +1621,11 @@
         <v>4.4875678951763485</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62710630135256873</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40097396970642274</v>
       </c>
       <c r="O7" s="11">
@@ -1633,18 +1633,18 @@
         <v>1.24152912099627E-3</v>
       </c>
       <c r="P7" s="11">
-        <f t="shared" si="9"/>
-        <v>0.45695018268506399</v>
+        <f t="shared" si="0"/>
+        <v>0.45275828437751853</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" si="10"/>
-        <v>2032.7932277917278</v>
+        <v>1739.7331731495967</v>
       </c>
       <c r="R7" s="4">
         <v>0.60929999999999995</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0464999999999999E-2</v>
       </c>
       <c r="T7" s="2">
@@ -1660,19 +1660,19 @@
         <v>7.0785570531895322E-27</v>
       </c>
       <c r="W7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0785570531895319E-3</v>
       </c>
       <c r="X7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8763760580229697E-2</v>
       </c>
       <c r="Y7" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.66055883269850346</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.68099878194495367</v>
       </c>
     </row>
@@ -1709,19 +1709,19 @@
         <v>7493.7231595451349</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1142.0838563081095</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1631795330806307</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63449103128228301</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35727271151779832</v>
       </c>
       <c r="O8" s="11">
@@ -1729,18 +1729,18 @@
         <v>1.3970171498388832E-3</v>
       </c>
       <c r="P8" s="11">
-        <f t="shared" si="9"/>
-        <v>0.40527245200170919</v>
+        <f t="shared" si="0"/>
+        <v>0.40197162060459124</v>
       </c>
       <c r="Q8" s="13">
         <f t="shared" si="10"/>
-        <v>1180.5225941711722</v>
+        <v>1023.7416505960367</v>
       </c>
       <c r="R8" s="4">
         <v>0.66239999999999999</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3120000000000004E-2</v>
       </c>
       <c r="T8" s="2">
@@ -1756,19 +1756,19 @@
         <v>6.3005202249277359E-27</v>
       </c>
       <c r="W8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3005202249277357E-3</v>
       </c>
       <c r="X8" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.18590607833666E-2</v>
       </c>
       <c r="Y8" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.453405340120121</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.60398278986841902</v>
       </c>
     </row>
@@ -1809,15 +1809,15 @@
         <v>1357.6411072417354</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6487223986373549</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6464957653532073</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32163529860316797</v>
       </c>
       <c r="O9" s="11">
@@ -1825,18 +1825,18 @@
         <v>1.5676468023221558E-3</v>
       </c>
       <c r="P9" s="11">
-        <f t="shared" si="9"/>
-        <v>0.36020200208327863</v>
+        <f t="shared" si="0"/>
+        <v>0.35759211999007279</v>
       </c>
       <c r="Q9" s="13">
         <f t="shared" si="10"/>
-        <v>605.24135615808143</v>
+        <v>526.09738568064188</v>
       </c>
       <c r="R9" s="4">
         <v>0.69750000000000001</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4875000000000003E-2</v>
       </c>
       <c r="T9" s="2">
@@ -1852,19 +1852,19 @@
         <v>5.692866681994198E-27</v>
       </c>
       <c r="W9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6928666819941976E-3</v>
       </c>
       <c r="X9" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7347295999573225E-2</v>
       </c>
       <c r="Y9" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5856484672278772</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.53681371398402178</v>
       </c>
     </row>
@@ -1901,19 +1901,19 @@
         <v>18877.566327660188</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3371.6901474905908</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6218842121750261</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46829029826258206</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28177099580603793</v>
       </c>
       <c r="O10" s="11">
@@ -1921,18 +1921,18 @@
         <v>9.8566059400125375E-4</v>
       </c>
       <c r="P10" s="11">
-        <f t="shared" si="9"/>
-        <v>0.32203280762368441</v>
+        <f t="shared" si="0"/>
+        <v>0.31994510438323459</v>
       </c>
       <c r="Q10" s="13">
         <f t="shared" si="10"/>
-        <v>1668.5216299566375</v>
+        <v>1499.9715456263586</v>
       </c>
       <c r="R10" s="4">
         <v>0.73260000000000003</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6630000000000003E-2</v>
       </c>
       <c r="T10" s="2">
@@ -1948,19 +1948,19 @@
         <v>3.913019391400378E-27</v>
       </c>
       <c r="W10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9130193914003776E-3</v>
       </c>
       <c r="X10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4570392197332485E-2</v>
       </c>
       <c r="Y10" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31670358441978702</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4799296685896936</v>
       </c>
     </row>
@@ -1997,19 +1997,19 @@
         <v>24188.804550639416</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3523.0050607091171</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2397041250592054</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32620417228788123</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27585612283802985</v>
       </c>
       <c r="O11" s="11">
@@ -2017,18 +2017,18 @@
         <v>8.6802814005650303E-4</v>
       </c>
       <c r="P11" s="11">
-        <f t="shared" si="9"/>
-        <v>0.29030620042535898</v>
+        <f t="shared" si="0"/>
+        <v>0.2886084840628545</v>
       </c>
       <c r="Q11" s="13">
         <f t="shared" si="10"/>
-        <v>277.12311298940296</v>
+        <v>215.8308907771102</v>
       </c>
       <c r="R11" s="4">
         <v>0.76590000000000003</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8295000000000003E-2</v>
       </c>
       <c r="T11" s="2">
@@ -2044,19 +2044,19 @@
         <v>2.8662378652951461E-27</v>
       </c>
       <c r="W11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8662378652951461E-3</v>
       </c>
       <c r="X11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2957388325761274E-2</v>
       </c>
       <c r="Y11" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.7981064833511393E-2</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.43264709452363481</v>
       </c>
     </row>
@@ -2093,19 +2093,19 @@
         <v>2110.9021481650648</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>343.74529963574275</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.554510740825323</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7187264981787138</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56815621642230774</v>
       </c>
       <c r="O12" s="11">
@@ -2113,18 +2113,18 @@
         <v>1.6444779731217909E-3</v>
       </c>
       <c r="P12" s="11">
-        <f t="shared" si="9"/>
-        <v>0.65789319321946138</v>
+        <f t="shared" si="0"/>
+        <v>0.64923907907344114</v>
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="10"/>
-        <v>2977.7398092537815</v>
+        <v>2431.0955305372413</v>
       </c>
       <c r="R12" s="4">
         <v>0.46079999999999999</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3040000000000001E-2</v>
       </c>
       <c r="T12" s="2">
@@ -2140,19 +2140,19 @@
         <v>2.3772614603616846E-26</v>
       </c>
       <c r="W12" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3772614603616845E-2</v>
       </c>
       <c r="X12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.517740944578237E-2</v>
       </c>
       <c r="Y12" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8308377746029338</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.98046675591573962</v>
       </c>
     </row>
@@ -2189,19 +2189,19 @@
         <v>5098.508161576673</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>576.79132013326102</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4975136026277891</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96131886688876833</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53572753110810722</v>
       </c>
       <c r="O13" s="11">
@@ -2209,18 +2209,18 @@
         <v>1.1035365174744559E-3</v>
       </c>
       <c r="P13" s="11">
-        <f t="shared" si="9"/>
-        <v>0.62182355639796505</v>
+        <f t="shared" si="0"/>
+        <v>0.61408675979992799</v>
       </c>
       <c r="Q13" s="13">
         <f t="shared" si="10"/>
-        <v>6086.8526192393801</v>
+        <v>5042.0469658466527</v>
       </c>
       <c r="R13" s="4">
         <v>0.48780000000000001</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4390000000000002E-2</v>
       </c>
       <c r="T13" s="2">
@@ -2236,15 +2236,15 @@
         <v>1.5344371520184826E-26</v>
       </c>
       <c r="W13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5344371520184827E-2</v>
       </c>
       <c r="X13" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4384737830657068E-2</v>
       </c>
       <c r="Y13" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2645283146307551</v>
       </c>
       <c r="Z13" s="2">
@@ -2285,19 +2285,19 @@
         <v>6170.6500346086623</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>663.06653941579521</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7133125432608276</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82883317426974401</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53980711240511592</v>
       </c>
       <c r="O14" s="11">
@@ -2305,18 +2305,18 @@
         <v>1.248187483494017E-3</v>
       </c>
       <c r="P14" s="11">
-        <f t="shared" si="9"/>
-        <v>0.57072967889430926</v>
+        <f t="shared" si="0"/>
+        <v>0.56420536684069378</v>
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="10"/>
-        <v>613.74987611528172</v>
+        <v>382.08313231198446</v>
       </c>
       <c r="R14" s="4">
         <v>0.46079999999999999</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3040000000000001E-2</v>
       </c>
       <c r="T14" s="2">
@@ -2332,19 +2332,19 @@
         <v>1.3939496969267884E-26</v>
       </c>
       <c r="W14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3939496969267884E-2</v>
       </c>
       <c r="X14" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1006364300052669E-2</v>
       </c>
       <c r="Y14" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8753691885529231</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
@@ -2381,19 +2381,19 @@
         <v>8535.2667382780091</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>869.15658300412088</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5655897986753917</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66858198692624682</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49143790509861013</v>
       </c>
       <c r="O15" s="11">
@@ -2401,18 +2401,18 @@
         <v>1.2328199505901207E-3</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" si="9"/>
-        <v>0.51346870699924607</v>
+        <f t="shared" si="0"/>
+        <v>0.50818177295976652</v>
       </c>
       <c r="Q15" s="13">
         <f t="shared" si="10"/>
-        <v>319.34586923120071</v>
+        <v>184.46427452288523</v>
       </c>
       <c r="R15" s="4">
         <v>0.504</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.52E-2</v>
       </c>
       <c r="T15" s="2">
@@ -2428,19 +2428,19 @@
         <v>1.1073256759218936E-26</v>
       </c>
       <c r="W15" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1073256759218936E-2</v>
       </c>
       <c r="X15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.855616972340576E-2</v>
       </c>
       <c r="Y15" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1268958344488551</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="I20" s="4">
         <f>SUM(Q2:Q15)</f>
-        <v>18823.598350501466</v>
+        <v>20789.150318594446</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>61</v>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="I22">
         <f>I20/I21</f>
-        <v>1344.5427393215334</v>
+        <v>1484.9393084710318</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>65</v>
@@ -2590,6 +2590,7 @@
         <f>POWER(3.81,2)/(2*POWER(36.1,3))*0.2</f>
         <v>3.0855198566692801E-5</v>
       </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
@@ -2603,6 +2604,10 @@
         <f>M2</f>
         <v>779.37144102001753</v>
       </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
@@ -2622,6 +2627,7 @@
       <c r="E27" s="7">
         <v>7.8300000000000001E+22</v>
       </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>

--- a/DATA.new.xlsx
+++ b/DATA.new.xlsx
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1192,7 +1192,7 @@
         <v>33.216830283527621</v>
       </c>
       <c r="Z2" s="2">
-        <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
+        <f t="shared" ref="Z2:Z15" si="1">1/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>1</v>
       </c>
     </row>
@@ -1233,15 +1233,15 @@
         <v>315.34605191871367</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L15" si="1">J3/B3</f>
+        <f t="shared" ref="L3:L15" si="2">J3/B3</f>
         <v>9.5510751771421951</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M15" si="2">K3/B3</f>
+        <f t="shared" ref="M3:M15" si="3">K3/B3</f>
         <v>1.5767302595935684</v>
       </c>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N15" si="3">(E3+61.6)/11540.4</f>
+        <f t="shared" ref="N3:N15" si="4">(E3+61.6)/11540.4</f>
         <v>0.64402966968216013</v>
       </c>
       <c r="O3" s="11">
@@ -1260,7 +1260,7 @@
         <v>0.40589999999999998</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S15" si="4">R3*0.05</f>
+        <f t="shared" ref="S3:S15" si="5">R3*0.05</f>
         <v>2.0295000000000001E-2</v>
       </c>
       <c r="T3" s="2">
@@ -1276,20 +1276,20 @@
         <v>2.460449021491582E-26</v>
       </c>
       <c r="W3" s="11">
-        <f t="shared" ref="W3:W15" si="5">V3*1E+24</f>
+        <f t="shared" ref="W3:W15" si="6">V3*1E+24</f>
         <v>2.4604490214915817E-2</v>
       </c>
       <c r="X3" s="11">
-        <f t="shared" ref="X3:X15" si="6">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Z3,2)*(Z3+1/Z3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
-        <v>7.517740944578237E-2</v>
+        <f t="shared" ref="X3:X15" si="7">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Z3,2)*(Z3+1/Z3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
+        <v>7.5216422611297101E-2</v>
       </c>
       <c r="Y3" s="13">
-        <f t="shared" ref="Y3:Y15" si="7">POWER((U3-X3)/W3,2)</f>
-        <v>2.0350355107432589</v>
+        <f t="shared" ref="Y3:Y15" si="8">POWER((U3-X3)/W3,2)</f>
+        <v>2.0305141268420011</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z15" si="8">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
-        <v>0.98046675591573962</v>
+        <f t="shared" si="1"/>
+        <v>0.98072368440096847</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1329,15 +1329,15 @@
         <v>507.76705531487812</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1193584856344803</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84627842552479682</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61049010432913942</v>
       </c>
       <c r="O4" s="11">
@@ -1356,7 +1356,7 @@
         <v>0.43380000000000002</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1690000000000001E-2</v>
       </c>
       <c r="T4" s="2">
@@ -1372,20 +1372,20 @@
         <v>1.7385341299552656E-26</v>
       </c>
       <c r="W4" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7385341299552656E-2</v>
       </c>
       <c r="X4" s="11">
-        <f t="shared" si="6"/>
-        <v>6.4384737830657068E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.450641222663403E-2</v>
       </c>
       <c r="Y4" s="13">
-        <f t="shared" si="7"/>
-        <v>3.8552175489379357</v>
+        <f t="shared" si="8"/>
+        <v>3.8277831329508429</v>
       </c>
       <c r="Z4" s="2">
-        <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A4))))</f>
-        <v>0.92671170849175111</v>
+        <f t="shared" si="1"/>
+        <v>0.92762350422949846</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1429,11 +1429,11 @@
         <v>8.1331333370195207</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83364592047211683</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56365637239610422</v>
       </c>
       <c r="O5" s="11">
@@ -1452,7 +1452,7 @@
         <v>0.44819999999999999</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2409999999999999E-2</v>
       </c>
       <c r="T5" s="2">
@@ -1468,20 +1468,20 @@
         <v>1.5456754410878626E-26</v>
       </c>
       <c r="W5" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5456754410878626E-2</v>
       </c>
       <c r="X5" s="11">
-        <f t="shared" si="6"/>
-        <v>5.1006364300052669E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.1192746571714881E-2</v>
       </c>
       <c r="Y5" s="13">
-        <f t="shared" si="7"/>
-        <v>4.8489751573456603</v>
+        <f t="shared" si="8"/>
+        <v>4.7960148439948123</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="8"/>
-        <v>0.85056584037900029</v>
+        <f t="shared" si="1"/>
+        <v>0.85227396803730171</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1521,7 +1521,7 @@
         <v>879.10496572965008</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8201823782477788</v>
       </c>
       <c r="M6" s="2">
@@ -1529,7 +1529,7 @@
         <v>0.67623458902280775</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44842466465633773</v>
       </c>
       <c r="O6" s="11">
@@ -1548,7 +1548,7 @@
         <v>0.5544</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7720000000000002E-2</v>
       </c>
       <c r="T6" s="2">
@@ -1564,20 +1564,20 @@
         <v>9.3385906482735598E-27</v>
       </c>
       <c r="W6" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3385906482735589E-3</v>
       </c>
       <c r="X6" s="11">
-        <f t="shared" si="6"/>
-        <v>3.855616972340576E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.8760419859286056E-2</v>
       </c>
       <c r="Y6" s="13">
-        <f t="shared" si="7"/>
-        <v>1.2990571357382013</v>
+        <f t="shared" si="8"/>
+        <v>1.249678619026199</v>
       </c>
       <c r="Z6" s="2">
-        <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A6))))</f>
-        <v>0.76522907153389874</v>
+        <f t="shared" si="1"/>
+        <v>0.76764618271868046</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1621,11 +1621,11 @@
         <v>4.4875678951763485</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62710630135256873</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40097396970642274</v>
       </c>
       <c r="O7" s="11">
@@ -1644,7 +1644,7 @@
         <v>0.60929999999999995</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0464999999999999E-2</v>
       </c>
       <c r="T7" s="2">
@@ -1660,20 +1660,20 @@
         <v>7.0785570531895322E-27</v>
       </c>
       <c r="W7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0785570531895319E-3</v>
       </c>
       <c r="X7" s="11">
-        <f t="shared" si="6"/>
-        <v>2.8763760580229697E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.8949160046953033E-2</v>
       </c>
       <c r="Y7" s="13">
-        <f t="shared" si="7"/>
-        <v>0.66055883269850346</v>
+        <f t="shared" si="8"/>
+        <v>0.6186703443709366</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="8"/>
-        <v>0.68099878194495367</v>
+        <f t="shared" si="1"/>
+        <v>0.68392490087238444</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1713,15 +1713,15 @@
         <v>1142.0838563081095</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1631795330806307</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63449103128228301</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35727271151779832</v>
       </c>
       <c r="O8" s="11">
@@ -1740,7 +1740,7 @@
         <v>0.66239999999999999</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3120000000000004E-2</v>
       </c>
       <c r="T8" s="2">
@@ -1756,20 +1756,20 @@
         <v>6.3005202249277359E-27</v>
       </c>
       <c r="W8" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3005202249277357E-3</v>
       </c>
       <c r="X8" s="11">
-        <f t="shared" si="6"/>
-        <v>2.18590607833666E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2011629877978396E-2</v>
       </c>
       <c r="Y8" s="13">
-        <f t="shared" si="7"/>
-        <v>1.453405340120121</v>
+        <f t="shared" si="8"/>
+        <v>1.3956050753799336</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="8"/>
-        <v>0.60398278986841902</v>
+        <f t="shared" si="1"/>
+        <v>0.60720788610965448</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1809,15 +1809,15 @@
         <v>1357.6411072417354</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6487223986373549</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6464957653532073</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.32163529860316797</v>
       </c>
       <c r="O9" s="11">
@@ -1836,7 +1836,7 @@
         <v>0.69750000000000001</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4875000000000003E-2</v>
       </c>
       <c r="T9" s="2">
@@ -1852,20 +1852,20 @@
         <v>5.692866681994198E-27</v>
       </c>
       <c r="W9" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6928666819941976E-3</v>
       </c>
       <c r="X9" s="11">
-        <f t="shared" si="6"/>
-        <v>1.7347295999573225E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.7469689709798761E-2</v>
       </c>
       <c r="Y9" s="13">
-        <f t="shared" si="7"/>
-        <v>1.5856484672278772</v>
+        <f t="shared" si="8"/>
+        <v>1.5319652986410537</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="8"/>
-        <v>0.53681371398402178</v>
+        <f t="shared" si="1"/>
+        <v>0.54016936554391659</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1905,15 +1905,15 @@
         <v>3371.6901474905908</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6218842121750261</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46829029826258206</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28177099580603793</v>
       </c>
       <c r="O10" s="11">
@@ -1932,7 +1932,7 @@
         <v>0.73260000000000003</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6630000000000003E-2</v>
       </c>
       <c r="T10" s="2">
@@ -1948,20 +1948,20 @@
         <v>3.913019391400378E-27</v>
       </c>
       <c r="W10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9130193914003776E-3</v>
       </c>
       <c r="X10" s="11">
-        <f t="shared" si="6"/>
-        <v>1.4570392197332485E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4672308838124934E-2</v>
       </c>
       <c r="Y10" s="13">
-        <f t="shared" si="7"/>
-        <v>0.31670358441978702</v>
+        <f t="shared" si="8"/>
+        <v>0.2880669748636252</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="8"/>
-        <v>0.4799296685896936</v>
+        <f t="shared" si="1"/>
+        <v>0.48330076190820936</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2001,15 +2001,15 @@
         <v>3523.0050607091171</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2397041250592054</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32620417228788123</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27585612283802985</v>
       </c>
       <c r="O11" s="11">
@@ -2028,7 +2028,7 @@
         <v>0.76590000000000003</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8295000000000003E-2</v>
       </c>
       <c r="T11" s="2">
@@ -2044,20 +2044,20 @@
         <v>2.8662378652951461E-27</v>
       </c>
       <c r="W11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8662378652951461E-3</v>
       </c>
       <c r="X11" s="11">
-        <f t="shared" si="6"/>
-        <v>1.2957388325761274E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3049198576292342E-2</v>
       </c>
       <c r="Y11" s="13">
-        <f t="shared" si="7"/>
-        <v>6.7981064833511393E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.2303765116596956E-2</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="8"/>
-        <v>0.43264709452363481</v>
+        <f t="shared" si="1"/>
+        <v>0.4359644774363361</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2097,15 +2097,15 @@
         <v>343.74529963574275</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.554510740825323</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7187264981787138</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56815621642230774</v>
       </c>
       <c r="O12" s="11">
@@ -2124,7 +2124,7 @@
         <v>0.46079999999999999</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3040000000000001E-2</v>
       </c>
       <c r="T12" s="2">
@@ -2140,20 +2140,20 @@
         <v>2.3772614603616846E-26</v>
       </c>
       <c r="W12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3772614603616845E-2</v>
       </c>
       <c r="X12" s="11">
-        <f t="shared" si="6"/>
-        <v>7.517740944578237E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.5216422611297101E-2</v>
       </c>
       <c r="Y12" s="13">
-        <f t="shared" si="7"/>
-        <v>1.8308377746029338</v>
+        <f t="shared" si="8"/>
+        <v>1.8263993819538786</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="8"/>
-        <v>0.98046675591573962</v>
+        <f t="shared" si="1"/>
+        <v>0.98072368440096847</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2193,15 +2193,15 @@
         <v>576.79132013326102</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4975136026277891</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96131886688876833</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53572753110810722</v>
       </c>
       <c r="O13" s="11">
@@ -2220,7 +2220,7 @@
         <v>0.48780000000000001</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4390000000000002E-2</v>
       </c>
       <c r="T13" s="2">
@@ -2236,20 +2236,20 @@
         <v>1.5344371520184826E-26</v>
       </c>
       <c r="W13" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5344371520184827E-2</v>
       </c>
       <c r="X13" s="11">
-        <f t="shared" si="6"/>
-        <v>6.4384737830657068E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.450641222663403E-2</v>
       </c>
       <c r="Y13" s="13">
-        <f t="shared" si="7"/>
-        <v>1.2645283146307551</v>
+        <f t="shared" si="8"/>
+        <v>1.246757373266189</v>
       </c>
       <c r="Z13" s="2">
-        <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A13))))</f>
-        <v>0.92671170849175111</v>
+        <f t="shared" si="1"/>
+        <v>0.92762350422949846</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2289,15 +2289,15 @@
         <v>663.06653941579521</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7133125432608276</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82883317426974401</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53980711240511592</v>
       </c>
       <c r="O14" s="11">
@@ -2316,7 +2316,7 @@
         <v>0.46079999999999999</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3040000000000001E-2</v>
       </c>
       <c r="T14" s="2">
@@ -2332,20 +2332,20 @@
         <v>1.3939496969267884E-26</v>
       </c>
       <c r="W14" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3939496969267884E-2</v>
       </c>
       <c r="X14" s="11">
-        <f t="shared" si="6"/>
-        <v>5.1006364300052669E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.1192746571714881E-2</v>
       </c>
       <c r="Y14" s="13">
-        <f t="shared" si="7"/>
-        <v>3.8753691885529231</v>
+        <f t="shared" si="8"/>
+        <v>3.8229045542098246</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="8"/>
-        <v>0.85056584037900029</v>
+        <f t="shared" si="1"/>
+        <v>0.85227396803730171</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2385,15 +2385,15 @@
         <v>869.15658300412088</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5655897986753917</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66858198692624682</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49143790509861013</v>
       </c>
       <c r="O15" s="11">
@@ -2412,7 +2412,7 @@
         <v>0.504</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.52E-2</v>
       </c>
       <c r="T15" s="2">
@@ -2428,20 +2428,20 @@
         <v>1.1073256759218936E-26</v>
       </c>
       <c r="W15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1073256759218936E-2</v>
       </c>
       <c r="X15" s="11">
-        <f t="shared" si="6"/>
-        <v>3.855616972340576E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.8760419859286056E-2</v>
       </c>
       <c r="Y15" s="13">
-        <f t="shared" si="7"/>
-        <v>4.1268958344488551</v>
+        <f t="shared" si="8"/>
+        <v>4.0522934694670854</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="8"/>
-        <v>0.76522907153389874</v>
+        <f t="shared" si="1"/>
+        <v>0.76764618271868046</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="K20" s="4">
         <f>SUM(Y3:Y15)</f>
-        <v>27.220213754300325</v>
+        <v>26.738956960082977</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="K22">
         <f>K20/K21</f>
-        <v>2.0938625964846405</v>
+        <v>2.0568428430833059</v>
       </c>
     </row>
     <row r="23" spans="1:15">

--- a/DATA.new.xlsx
+++ b/DATA.new.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>Element</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>Chi2/ DOF</t>
+  </si>
+  <si>
+    <t>E' Error Extra</t>
+  </si>
+  <si>
+    <t>Energy Extra</t>
+  </si>
+  <si>
+    <t>Chi 2 Extra</t>
   </si>
 </sst>
 </file>
@@ -1002,27 +1011,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.83203125" style="9"/>
-    <col min="17" max="17" width="10.83203125" style="14"/>
-    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.83203125" style="9"/>
+    <col min="18" max="19" width="10.83203125" style="14"/>
     <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="9"/>
-    <col min="24" max="24" width="10.83203125" style="11"/>
-    <col min="25" max="25" width="10.83203125" style="13"/>
+    <col min="23" max="23" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="9"/>
+    <col min="26" max="26" width="10.83203125" style="11"/>
+    <col min="27" max="27" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
+    <row r="1" spans="1:28" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1069,40 +1078,46 @@
         <v>38</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1129,11 +1144,11 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2">
-        <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/(B17*R2)</f>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/(B17*T2)</f>
         <v>466991.61160205182</v>
       </c>
       <c r="K2" s="2">
-        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2/R2,2)+POWER(G2*D2/R2,2)+POWER(C2*G2*S2/POWER(R2,2),2)))</f>
+        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2/T2,2)+POWER(G2*D2/T2,2)+POWER(C2*G2*U2/POWER(T2,2),2)))</f>
         <v>46762.286461201053</v>
       </c>
       <c r="L2" s="2">
@@ -1153,50 +1168,58 @@
         <v>1.2403024496755212E-4</v>
       </c>
       <c r="P2" s="11">
-        <f t="shared" ref="P2:P15" si="0">0.662/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
+        <f>O2+0.025</f>
+        <v>2.5124030244967552E-2</v>
+      </c>
+      <c r="Q2" s="11">
+        <f t="shared" ref="Q2:Q15" si="0">0.662/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>0.66200000000000003</v>
       </c>
-      <c r="Q2" s="13">
-        <f>POWER((N2-P2)/O2,2)</f>
+      <c r="R2" s="13">
+        <f>POWER((N2-Q2)/O2,2)</f>
         <v>5368.4470877477006</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="13">
+        <f>POWER((N2-Q2)/P2,2)</f>
+        <v>0.13083539949272774</v>
+      </c>
+      <c r="T2" s="4">
         <v>0.38429999999999997</v>
       </c>
-      <c r="S2" s="4">
-        <f>R2*0.05</f>
+      <c r="U2" s="4">
+        <f>T2*0.05</f>
         <v>1.9214999999999999E-2</v>
       </c>
-      <c r="T2" s="2">
-        <f>L2/(L2*R2*B27*B25)</f>
+      <c r="V2" s="2">
+        <f>L2/(L2*T2*B27*B25)</f>
         <v>9.4915827816779713E-23</v>
-      </c>
-      <c r="U2" s="11">
-        <f>T2*1E+24</f>
-        <v>94.915827816779711</v>
-      </c>
-      <c r="V2" s="2">
-        <f>SQRT(POWER(M2/(L2*R2*B27*B25),2)+POWER(L2*M2/(POWER(L2,2)*R2*B27*B25),2)+POWER(L2*C27/(L2*R2*POWER(B27,2)*B25),2)+POWER(L2*C25/(L2*R2*B27*POWER(B25,2)),2))</f>
-        <v>1.6454934815612501E-23</v>
       </c>
       <c r="W2" s="11">
         <f>V2*1E+24</f>
+        <v>94.915827816779711</v>
+      </c>
+      <c r="X2" s="2">
+        <f>SQRT(POWER(M2/(L2*T2*B27*B25),2)+POWER(L2*M2/(POWER(L2,2)*T2*B27*B25),2)+POWER(L2*C27/(L2*T2*POWER(B27,2)*B25),2)+POWER(L2*C25/(L2*T2*B27*POWER(B25,2)),2))</f>
+        <v>1.6454934815612501E-23</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>X2*1E+24</f>
         <v>16.4549348156125</v>
       </c>
-      <c r="X2" s="11">
-        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Z2,2)*(Z2+1/Z2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
+      <c r="Z2" s="11">
+        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(AB2,2)*(AB2+1/AB2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
         <v>7.9384090788001488E-2</v>
       </c>
-      <c r="Y2" s="13">
-        <f>POWER((U2-X2)/W2,2)</f>
+      <c r="AA2" s="13">
+        <f>POWER((W2-Z2)/Y2,2)</f>
         <v>33.216830283527621</v>
       </c>
-      <c r="Z2" s="2">
-        <f t="shared" ref="Z2:Z15" si="1">1/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
+      <c r="AB2" s="2">
+        <f t="shared" ref="AB2:AB15" si="1">1/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1249,50 +1272,58 @@
         <v>1.6978129586738197E-3</v>
       </c>
       <c r="P3" s="11">
+        <f t="shared" ref="P3:P15" si="5">O3+0.025</f>
+        <v>2.6697812958673822E-2</v>
+      </c>
+      <c r="Q3" s="11">
         <f t="shared" si="0"/>
         <v>0.64923907907344114</v>
       </c>
-      <c r="Q3" s="13">
-        <f>POWER((N3-P3)/O3,2)</f>
+      <c r="R3" s="13">
+        <f>POWER((N3-Q3)/O3,2)</f>
         <v>9.4145006372529156</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="13">
+        <f t="shared" ref="S3:S15" si="6">POWER((N3-Q3)/P3,2)</f>
+        <v>3.8073745712140901E-2</v>
+      </c>
+      <c r="T3" s="4">
         <v>0.40589999999999998</v>
       </c>
-      <c r="S3" s="4">
-        <f t="shared" ref="S3:S15" si="5">R3*0.05</f>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U15" si="7">T3*0.05</f>
         <v>2.0295000000000001E-2</v>
       </c>
-      <c r="T3" s="2">
-        <f>L3/(L2*R3*B27*B25)</f>
+      <c r="V3" s="2">
+        <f>L3/(L2*T3*B27*B25)</f>
         <v>1.1027686396938746E-25</v>
       </c>
-      <c r="U3" s="11">
-        <f>T3*1E+24</f>
+      <c r="W3" s="11">
+        <f>V3*1E+24</f>
         <v>0.11027686396938746</v>
       </c>
-      <c r="V3" s="2">
-        <f>SQRT(POWER(M3/(L2*R3*B27*B25),2)+POWER(L3*M2/(POWER(L2,2)*R3*B27*B25),2)+POWER(L3*C27/(L2*R3*POWER(B27,2)*B25),2)+POWER(L3*C25/(L2*R3*B27*POWER(B25,2)),2)+POWER(L3*S3/(L2*POWER(R3,2)*B27*B25),2))</f>
+      <c r="X3" s="2">
+        <f>SQRT(POWER(M3/(L2*T3*B27*B25),2)+POWER(L3*M2/(POWER(L2,2)*T3*B27*B25),2)+POWER(L3*C27/(L2*T3*POWER(B27,2)*B25),2)+POWER(L3*C25/(L2*T3*B27*POWER(B25,2)),2)+POWER(L3*U3/(L2*POWER(T3,2)*B27*B25),2))</f>
         <v>2.460449021491582E-26</v>
       </c>
-      <c r="W3" s="11">
-        <f t="shared" ref="W3:W15" si="6">V3*1E+24</f>
+      <c r="Y3" s="11">
+        <f t="shared" ref="Y3:Y15" si="8">X3*1E+24</f>
         <v>2.4604490214915817E-2</v>
       </c>
-      <c r="X3" s="11">
-        <f t="shared" ref="X3:X15" si="7">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Z3,2)*(Z3+1/Z3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
+      <c r="Z3" s="11">
+        <f t="shared" ref="Z3:Z15" si="9">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(AB3,2)*(AB3+1/AB3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
         <v>7.5216422611297101E-2</v>
       </c>
-      <c r="Y3" s="13">
-        <f t="shared" ref="Y3:Y15" si="8">POWER((U3-X3)/W3,2)</f>
+      <c r="AA3" s="13">
+        <f t="shared" ref="AA3:AA15" si="10">POWER((W3-Z3)/Y3,2)</f>
         <v>2.0305141268420011</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AB3" s="2">
         <f t="shared" si="1"/>
         <v>0.98072368440096847</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1325,7 +1356,7 @@
         <v>5471.6150913806878</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K15" si="9">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
+        <f t="shared" ref="K4:K15" si="11">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
         <v>507.76705531487812</v>
       </c>
       <c r="L4" s="2">
@@ -1345,50 +1376,58 @@
         <v>9.5150740426510033E-4</v>
       </c>
       <c r="P4" s="11">
+        <f t="shared" si="5"/>
+        <v>2.5951507404265103E-2</v>
+      </c>
+      <c r="Q4" s="11">
         <f t="shared" si="0"/>
         <v>0.61408675979992799</v>
       </c>
-      <c r="Q4" s="13">
-        <f t="shared" ref="Q4:Q15" si="10">POWER((N4-P4)/O4,2)</f>
+      <c r="R4" s="13">
+        <f t="shared" ref="R4:R15" si="12">POWER((N4-Q4)/O4,2)</f>
         <v>14.288062189553155</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="13">
+        <f t="shared" si="6"/>
+        <v>1.920757324366824E-2</v>
+      </c>
+      <c r="T4" s="4">
         <v>0.43380000000000002</v>
       </c>
-      <c r="S4" s="4">
-        <f t="shared" si="5"/>
+      <c r="U4" s="4">
+        <f t="shared" si="7"/>
         <v>2.1690000000000001E-2</v>
       </c>
-      <c r="T4" s="2">
-        <f>L4/(L2*R4*B27*B25)</f>
+      <c r="V4" s="2">
+        <f>L4/(L2*T4*B27*B25)</f>
         <v>9.8520347671986592E-26</v>
       </c>
-      <c r="U4" s="11">
-        <f>T4*1E+24</f>
+      <c r="W4" s="11">
+        <f>V4*1E+24</f>
         <v>9.8520347671986586E-2</v>
       </c>
-      <c r="V4" s="2">
-        <f>SQRT(POWER(M4/(L2*R4*B27*B25),2)+POWER(L4*M2/(POWER(L2,2)*R4*B27*B25),2)+POWER(L4*C27/(L2*R4*POWER(B27,2)*B25),2)+POWER(L4*C25/(L2*R4*B27*POWER(B25,2)),2)+POWER(L4*S4/(L2*POWER(R4,2)*B27*B25),2))</f>
+      <c r="X4" s="2">
+        <f>SQRT(POWER(M4/(L2*T4*B27*B25),2)+POWER(L4*M2/(POWER(L2,2)*T4*B27*B25),2)+POWER(L4*C27/(L2*T4*POWER(B27,2)*B25),2)+POWER(L4*C25/(L2*T4*B27*POWER(B25,2)),2)+POWER(L4*U4/(L2*POWER(T4,2)*B27*B25),2))</f>
         <v>1.7385341299552656E-26</v>
       </c>
-      <c r="W4" s="11">
-        <f t="shared" si="6"/>
+      <c r="Y4" s="11">
+        <f t="shared" si="8"/>
         <v>1.7385341299552656E-2</v>
       </c>
-      <c r="X4" s="11">
-        <f t="shared" si="7"/>
+      <c r="Z4" s="11">
+        <f t="shared" si="9"/>
         <v>6.450641222663403E-2</v>
       </c>
-      <c r="Y4" s="13">
-        <f t="shared" si="8"/>
+      <c r="AA4" s="13">
+        <f t="shared" si="10"/>
         <v>3.8277831329508429</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AB4" s="2">
         <f t="shared" si="1"/>
         <v>0.92762350422949846</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1421,7 +1460,7 @@
         <v>6506.5066696156164</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>666.9167363776935</v>
       </c>
       <c r="L5" s="2">
@@ -1437,54 +1476,62 @@
         <v>0.56365637239610422</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" ref="O5:O15" si="11">SQRT(POWER(F5/11540.4,2)+POWER((-61.6-E5)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
+        <f t="shared" ref="O5:O15" si="13">SQRT(POWER(F5/11540.4,2)+POWER((-61.6-E5)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
         <v>8.6660158045304321E-4</v>
       </c>
       <c r="P5" s="11">
+        <f t="shared" si="5"/>
+        <v>2.5866601580453046E-2</v>
+      </c>
+      <c r="Q5" s="11">
         <f t="shared" si="0"/>
         <v>0.56420536684069378</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="R5" s="13">
+        <f t="shared" si="12"/>
+        <v>0.40132567609502384</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="6"/>
+        <v>4.5046095369574208E-4</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="7"/>
+        <v>2.2409999999999999E-2</v>
+      </c>
+      <c r="V5" s="2">
+        <f>L5/(L2*T5*B27*B25)</f>
+        <v>8.5042738219826426E-26</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5:W15" si="14">V5*1E+24</f>
+        <v>8.5042738219826428E-2</v>
+      </c>
+      <c r="X5" s="2">
+        <f>SQRT(POWER(M5/(L2*T5*B27*B25),2)+POWER(L5*M2/(POWER(L2,2)*T5*B27*B25),2)+POWER(L5*C27/(L2*T5*POWER(B27,2)*B25),2)+POWER(L5*C25/(L2*T5*B27*POWER(B25,2)),2)+POWER(L5*U5/(L2*POWER(T5,2)*B27*B25),2))</f>
+        <v>1.5456754410878626E-26</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="8"/>
+        <v>1.5456754410878626E-2</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="9"/>
+        <v>5.1192746571714881E-2</v>
+      </c>
+      <c r="AA5" s="13">
         <f t="shared" si="10"/>
-        <v>0.40132567609502384</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.44819999999999999</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="5"/>
-        <v>2.2409999999999999E-2</v>
-      </c>
-      <c r="T5" s="2">
-        <f>L5/(L2*R5*B27*B25)</f>
-        <v>8.5042738219826426E-26</v>
-      </c>
-      <c r="U5" s="11">
-        <f t="shared" ref="U5:U15" si="12">T5*1E+24</f>
-        <v>8.5042738219826428E-2</v>
-      </c>
-      <c r="V5" s="2">
-        <f>SQRT(POWER(M5/(L2*R5*B27*B25),2)+POWER(L5*M2/(POWER(L2,2)*R5*B27*B25),2)+POWER(L5*C27/(L2*R5*POWER(B27,2)*B25),2)+POWER(L5*C25/(L2*R5*B27*POWER(B25,2)),2)+POWER(L5*S5/(L2*POWER(R5,2)*B27*B25),2))</f>
-        <v>1.5456754410878626E-26</v>
-      </c>
-      <c r="W5" s="11">
-        <f t="shared" si="6"/>
-        <v>1.5456754410878626E-2</v>
-      </c>
-      <c r="X5" s="11">
-        <f t="shared" si="7"/>
-        <v>5.1192746571714881E-2</v>
-      </c>
-      <c r="Y5" s="13">
-        <f t="shared" si="8"/>
         <v>4.7960148439948123</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AB5" s="2">
         <f t="shared" si="1"/>
         <v>0.85227396803730171</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1517,7 +1564,7 @@
         <v>7566.2370917221124</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>879.10496572965008</v>
       </c>
       <c r="L6" s="2">
@@ -1533,54 +1580,62 @@
         <v>0.44842466465633773</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2322926807150111E-3</v>
       </c>
       <c r="P6" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6232292680715013E-2</v>
+      </c>
+      <c r="Q6" s="11">
         <f t="shared" si="0"/>
         <v>0.50818177295976652</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="R6" s="13">
+        <f t="shared" si="12"/>
+        <v>2351.5347932953373</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="6"/>
+        <v>5.1892745478269999</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0.5544</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7720000000000002E-2</v>
+      </c>
+      <c r="V6" s="2">
+        <f>L6/(L2*T6*B27*B25)</f>
+        <v>4.9199939327068512E-26</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="14"/>
+        <v>4.9199939327068509E-2</v>
+      </c>
+      <c r="X6" s="2">
+        <f>SQRT(POWER(M6/(L2*T6*B27*B25),2)+POWER(L6*M2/(POWER(L2,2)*T6*B27*B25),2)+POWER(L6*C27/(L2*T6*POWER(B27,2)*B25),2)+POWER(L6*C25/(L2*T6*B27*POWER(B25,2)),2)+POWER(L6*U6/(L2*POWER(T6,2)*B27*B25),2))</f>
+        <v>9.3385906482735598E-27</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="8"/>
+        <v>9.3385906482735589E-3</v>
+      </c>
+      <c r="Z6" s="11">
+        <f t="shared" si="9"/>
+        <v>3.8760419859286056E-2</v>
+      </c>
+      <c r="AA6" s="13">
         <f t="shared" si="10"/>
-        <v>2351.5347932953373</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0.5544</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="5"/>
-        <v>2.7720000000000002E-2</v>
-      </c>
-      <c r="T6" s="2">
-        <f>L6/(L2*R6*B27*B25)</f>
-        <v>4.9199939327068512E-26</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" si="12"/>
-        <v>4.9199939327068509E-2</v>
-      </c>
-      <c r="V6" s="2">
-        <f>SQRT(POWER(M6/(L2*R6*B27*B25),2)+POWER(L6*M2/(POWER(L2,2)*R6*B27*B25),2)+POWER(L6*C27/(L2*R6*POWER(B27,2)*B25),2)+POWER(L6*C25/(L2*R6*B27*POWER(B25,2)),2)+POWER(L6*S6/(L2*POWER(R6,2)*B27*B25),2))</f>
-        <v>9.3385906482735598E-27</v>
-      </c>
-      <c r="W6" s="11">
-        <f t="shared" si="6"/>
-        <v>9.3385906482735589E-3</v>
-      </c>
-      <c r="X6" s="11">
-        <f t="shared" si="7"/>
-        <v>3.8760419859286056E-2</v>
-      </c>
-      <c r="Y6" s="13">
-        <f t="shared" si="8"/>
         <v>1.249678619026199</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AB6" s="2">
         <f t="shared" si="1"/>
         <v>0.76764618271868046</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1613,7 +1668,7 @@
         <v>6731.3518427645222</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>940.65945202885302</v>
       </c>
       <c r="L7" s="2">
@@ -1629,54 +1684,62 @@
         <v>0.40097396970642274</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.24152912099627E-3</v>
       </c>
       <c r="P7" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6241529120996272E-2</v>
+      </c>
+      <c r="Q7" s="11">
         <f t="shared" si="0"/>
         <v>0.45275828437751853</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="13">
+        <f t="shared" si="12"/>
+        <v>1739.7331731495967</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" si="6"/>
+        <v>3.8941994367224462</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="7"/>
+        <v>3.0464999999999999E-2</v>
+      </c>
+      <c r="V7" s="2">
+        <f>L7/(L2*T7*B27*B25)</f>
+        <v>3.4516841583037877E-26</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="14"/>
+        <v>3.4516841583037874E-2</v>
+      </c>
+      <c r="X7" s="2">
+        <f>SQRT(POWER(M7/(L2*T7*B27*B25),2)+POWER(L7*M2/(POWER(L2,2)*T7*B27*B25),2)+POWER(L7*C27/(L2*T7*POWER(B27,2)*B25),2)+POWER(L7*C25/(L2*T7*B27*POWER(B25,2)),2)+POWER(L7*U7/(L2*POWER(T7,2)*B27*B25),2))</f>
+        <v>7.0785570531895322E-27</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="8"/>
+        <v>7.0785570531895319E-3</v>
+      </c>
+      <c r="Z7" s="11">
+        <f t="shared" si="9"/>
+        <v>2.8949160046953033E-2</v>
+      </c>
+      <c r="AA7" s="13">
         <f t="shared" si="10"/>
-        <v>1739.7331731495967</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.60929999999999995</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="5"/>
-        <v>3.0464999999999999E-2</v>
-      </c>
-      <c r="T7" s="2">
-        <f>L7/(L2*R7*B27*B25)</f>
-        <v>3.4516841583037877E-26</v>
-      </c>
-      <c r="U7" s="11">
-        <f t="shared" si="12"/>
-        <v>3.4516841583037874E-2</v>
-      </c>
-      <c r="V7" s="2">
-        <f>SQRT(POWER(M7/(L2*R7*B27*B25),2)+POWER(L7*M2/(POWER(L2,2)*R7*B27*B25),2)+POWER(L7*C27/(L2*R7*POWER(B27,2)*B25),2)+POWER(L7*C25/(L2*R7*B27*POWER(B25,2)),2)+POWER(L7*S7/(L2*POWER(R7,2)*B27*B25),2))</f>
-        <v>7.0785570531895322E-27</v>
-      </c>
-      <c r="W7" s="11">
-        <f t="shared" si="6"/>
-        <v>7.0785570531895319E-3</v>
-      </c>
-      <c r="X7" s="11">
-        <f t="shared" si="7"/>
-        <v>2.8949160046953033E-2</v>
-      </c>
-      <c r="Y7" s="13">
-        <f t="shared" si="8"/>
         <v>0.6186703443709366</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <f t="shared" si="1"/>
         <v>0.68392490087238444</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1709,7 +1772,7 @@
         <v>7493.7231595451349</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1142.0838563081095</v>
       </c>
       <c r="L8" s="2">
@@ -1725,54 +1788,62 @@
         <v>0.35727271151779832</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3970171498388832E-3</v>
       </c>
       <c r="P8" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6397017149838886E-2</v>
+      </c>
+      <c r="Q8" s="11">
         <f t="shared" si="0"/>
         <v>0.40197162060459124</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="R8" s="13">
+        <f t="shared" si="12"/>
+        <v>1023.7416505960367</v>
+      </c>
+      <c r="S8" s="13">
+        <f t="shared" si="6"/>
+        <v>2.8673726518399776</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="7"/>
+        <v>3.3120000000000004E-2</v>
+      </c>
+      <c r="V8" s="2">
+        <f>L8/(L2*T8*B27*B25)</f>
+        <v>2.9454795453138688E-26</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="14"/>
+        <v>2.9454795453138689E-2</v>
+      </c>
+      <c r="X8" s="2">
+        <f>SQRT(POWER(M8/(L2*T8*B27*B25),2)+POWER(L8*M2/(POWER(L2,2)*T8*B27*B25),2)+POWER(L8*C27/(L2*T8*POWER(B27,2)*B25),2)+POWER(L8*C25/(L2*T8*B27*POWER(B25,2)),2)+POWER(L8*U8/(L2*POWER(T8,2)*B27*B25),2))</f>
+        <v>6.3005202249277359E-27</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="8"/>
+        <v>6.3005202249277357E-3</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="9"/>
+        <v>2.2011629877978396E-2</v>
+      </c>
+      <c r="AA8" s="13">
         <f t="shared" si="10"/>
-        <v>1023.7416505960367</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0.66239999999999999</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="5"/>
-        <v>3.3120000000000004E-2</v>
-      </c>
-      <c r="T8" s="2">
-        <f>L8/(L2*R8*B27*B25)</f>
-        <v>2.9454795453138688E-26</v>
-      </c>
-      <c r="U8" s="11">
-        <f t="shared" si="12"/>
-        <v>2.9454795453138689E-2</v>
-      </c>
-      <c r="V8" s="2">
-        <f>SQRT(POWER(M8/(L2*R8*B27*B25),2)+POWER(L8*M2/(POWER(L2,2)*R8*B27*B25),2)+POWER(L8*C27/(L2*R8*POWER(B27,2)*B25),2)+POWER(L8*C25/(L2*R8*B27*POWER(B25,2)),2)+POWER(L8*S8/(L2*POWER(R8,2)*B27*B25),2))</f>
-        <v>6.3005202249277359E-27</v>
-      </c>
-      <c r="W8" s="11">
-        <f t="shared" si="6"/>
-        <v>6.3005202249277357E-3</v>
-      </c>
-      <c r="X8" s="11">
-        <f t="shared" si="7"/>
-        <v>2.2011629877978396E-2</v>
-      </c>
-      <c r="Y8" s="13">
-        <f t="shared" si="8"/>
         <v>1.3956050753799336</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AB8" s="2">
         <f t="shared" si="1"/>
         <v>0.60720788610965448</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1821,54 +1892,62 @@
         <v>0.32163529860316797</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5676468023221558E-3</v>
       </c>
       <c r="P9" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6567646802322157E-2</v>
+      </c>
+      <c r="Q9" s="11">
         <f t="shared" si="0"/>
         <v>0.35759211999007279</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="R9" s="13">
+        <f t="shared" si="12"/>
+        <v>526.09738568064188</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="6"/>
+        <v>1.8317086972870662</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="7"/>
+        <v>3.4875000000000003E-2</v>
+      </c>
+      <c r="V9" s="2">
+        <f>L9/(L2*T9*B27*B25)</f>
+        <v>2.4515898006132092E-26</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="14"/>
+        <v>2.4515898006132093E-2</v>
+      </c>
+      <c r="X9" s="2">
+        <f>SQRT(POWER(M9/(L2*T9*B27*B25),2)+POWER(L9*M2/(POWER(L2,2)*T9*B27*B25),2)+POWER(L9*C27/(L2*T9*POWER(B27,2)*B25),2)+POWER(L9*C25/(L2*T9*B27*POWER(B25,2)),2)+POWER(L9*U9/(L2*POWER(T9,2)*B27*B25),2))</f>
+        <v>5.692866681994198E-27</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="8"/>
+        <v>5.6928666819941976E-3</v>
+      </c>
+      <c r="Z9" s="11">
+        <f t="shared" si="9"/>
+        <v>1.7469689709798761E-2</v>
+      </c>
+      <c r="AA9" s="13">
         <f t="shared" si="10"/>
-        <v>526.09738568064188</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="5"/>
-        <v>3.4875000000000003E-2</v>
-      </c>
-      <c r="T9" s="2">
-        <f>L9/(L2*R9*B27*B25)</f>
-        <v>2.4515898006132092E-26</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" si="12"/>
-        <v>2.4515898006132093E-2</v>
-      </c>
-      <c r="V9" s="2">
-        <f>SQRT(POWER(M9/(L2*R9*B27*B25),2)+POWER(L9*M2/(POWER(L2,2)*R9*B27*B25),2)+POWER(L9*C27/(L2*R9*POWER(B27,2)*B25),2)+POWER(L9*C25/(L2*R9*B27*POWER(B25,2)),2)+POWER(L9*S9/(L2*POWER(R9,2)*B27*B25),2))</f>
-        <v>5.692866681994198E-27</v>
-      </c>
-      <c r="W9" s="11">
-        <f t="shared" si="6"/>
-        <v>5.6928666819941976E-3</v>
-      </c>
-      <c r="X9" s="11">
-        <f t="shared" si="7"/>
-        <v>1.7469689709798761E-2</v>
-      </c>
-      <c r="Y9" s="13">
-        <f t="shared" si="8"/>
         <v>1.5319652986410537</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AB9" s="2">
         <f t="shared" si="1"/>
         <v>0.54016936554391659</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1901,7 +1980,7 @@
         <v>18877.566327660188</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3371.6901474905908</v>
       </c>
       <c r="L10" s="2">
@@ -1917,54 +1996,62 @@
         <v>0.28177099580603793</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.8566059400125375E-4</v>
       </c>
       <c r="P10" s="11">
+        <f t="shared" si="5"/>
+        <v>2.5985660594001255E-2</v>
+      </c>
+      <c r="Q10" s="11">
         <f t="shared" si="0"/>
         <v>0.31994510438323459</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="R10" s="13">
+        <f t="shared" si="12"/>
+        <v>1499.9715456263586</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="6"/>
+        <v>2.1580936427924606</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="7"/>
+        <v>3.6630000000000003E-2</v>
+      </c>
+      <c r="V10" s="2">
+        <f>L10/(L2*T10*B27*B25)</f>
+        <v>1.6772499562455111E-26</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="14"/>
+        <v>1.677249956245511E-2</v>
+      </c>
+      <c r="X10" s="2">
+        <f>SQRT(POWER(M10/(L2*T10*B27*B25),2)+POWER(L10*M2/(POWER(L2,2)*T10*B27*B25),2)+POWER(L10*C27/(L2*T10*POWER(B27,2)*B25),2)+POWER(L10*C25/(L2*T10*B27*POWER(B25,2)),2)+POWER(L10*U10/(L2*POWER(T10,2)*B27*B25),2))</f>
+        <v>3.913019391400378E-27</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="8"/>
+        <v>3.9130193914003776E-3</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="9"/>
+        <v>1.4672308838124934E-2</v>
+      </c>
+      <c r="AA10" s="13">
         <f t="shared" si="10"/>
-        <v>1499.9715456263586</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0.73260000000000003</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="5"/>
-        <v>3.6630000000000003E-2</v>
-      </c>
-      <c r="T10" s="2">
-        <f>L10/(L2*R10*B27*B25)</f>
-        <v>1.6772499562455111E-26</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="12"/>
-        <v>1.677249956245511E-2</v>
-      </c>
-      <c r="V10" s="2">
-        <f>SQRT(POWER(M10/(L2*R10*B27*B25),2)+POWER(L10*M2/(POWER(L2,2)*R10*B27*B25),2)+POWER(L10*C27/(L2*R10*POWER(B27,2)*B25),2)+POWER(L10*C25/(L2*R10*B27*POWER(B25,2)),2)+POWER(L10*S10/(L2*POWER(R10,2)*B27*B25),2))</f>
-        <v>3.913019391400378E-27</v>
-      </c>
-      <c r="W10" s="11">
-        <f t="shared" si="6"/>
-        <v>3.9130193914003776E-3</v>
-      </c>
-      <c r="X10" s="11">
-        <f t="shared" si="7"/>
-        <v>1.4672308838124934E-2</v>
-      </c>
-      <c r="Y10" s="13">
-        <f t="shared" si="8"/>
         <v>0.2880669748636252</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AB10" s="2">
         <f t="shared" si="1"/>
         <v>0.48330076190820936</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1997,7 +2084,7 @@
         <v>24188.804550639416</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3523.0050607091171</v>
       </c>
       <c r="L11" s="2">
@@ -2013,54 +2100,62 @@
         <v>0.27585612283802985</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6802814005650303E-4</v>
       </c>
       <c r="P11" s="11">
+        <f t="shared" si="5"/>
+        <v>2.5868028140056506E-2</v>
+      </c>
+      <c r="Q11" s="11">
         <f t="shared" si="0"/>
         <v>0.2886084840628545</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="R11" s="13">
+        <f t="shared" si="12"/>
+        <v>215.8308907771102</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" si="6"/>
+        <v>0.24302702065583023</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="7"/>
+        <v>3.8295000000000003E-2</v>
+      </c>
+      <c r="V11" s="2">
+        <f>L11/(L2*T11*B27*B25)</f>
+        <v>1.3704707646793601E-26</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="14"/>
+        <v>1.37047076467936E-2</v>
+      </c>
+      <c r="X11" s="2">
+        <f>SQRT(POWER(M11/(L2*T11*B27*B25),2)+POWER(L11*M2/(POWER(L2,2)*T11*B27*B25),2)+POWER(L11*C27/(L2*T11*POWER(B27,2)*B25),2)+POWER(L11*C25/(L2*T11*B27*POWER(B25,2)),2)+POWER(L11*U11/(L2*POWER(T11,2)*B27*B25),2))</f>
+        <v>2.8662378652951461E-27</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="8"/>
+        <v>2.8662378652951461E-3</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="9"/>
+        <v>1.3049198576292342E-2</v>
+      </c>
+      <c r="AA11" s="13">
         <f t="shared" si="10"/>
-        <v>215.8308907771102</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0.76590000000000003</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="5"/>
-        <v>3.8295000000000003E-2</v>
-      </c>
-      <c r="T11" s="2">
-        <f>L11/(L2*R11*B27*B25)</f>
-        <v>1.3704707646793601E-26</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="12"/>
-        <v>1.37047076467936E-2</v>
-      </c>
-      <c r="V11" s="2">
-        <f>SQRT(POWER(M11/(L2*R11*B27*B25),2)+POWER(L11*M2/(POWER(L2,2)*R11*B27*B25),2)+POWER(L11*C27/(L2*R11*POWER(B27,2)*B25),2)+POWER(L11*C25/(L2*R11*B27*POWER(B25,2)),2)+POWER(L11*S11/(L2*POWER(R11,2)*B27*B25),2))</f>
-        <v>2.8662378652951461E-27</v>
-      </c>
-      <c r="W11" s="11">
-        <f t="shared" si="6"/>
-        <v>2.8662378652951461E-3</v>
-      </c>
-      <c r="X11" s="11">
-        <f t="shared" si="7"/>
-        <v>1.3049198576292342E-2</v>
-      </c>
-      <c r="Y11" s="13">
-        <f t="shared" si="8"/>
         <v>5.2303765116596956E-2</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AB11" s="2">
         <f t="shared" si="1"/>
         <v>0.4359644774363361</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>-10</v>
       </c>
@@ -2093,7 +2188,7 @@
         <v>2110.9021481650648</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>343.74529963574275</v>
       </c>
       <c r="L12" s="2">
@@ -2109,54 +2204,62 @@
         <v>0.56815621642230774</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6444779731217909E-3</v>
       </c>
       <c r="P12" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6644477973121791E-2</v>
+      </c>
+      <c r="Q12" s="11">
         <f t="shared" si="0"/>
         <v>0.64923907907344114</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="R12" s="13">
+        <f t="shared" si="12"/>
+        <v>2431.0955305372413</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="6"/>
+        <v>9.2606978506796338</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3040000000000001E-2</v>
+      </c>
+      <c r="V12" s="2">
+        <f>L12/(L2*T12*B27*B25)</f>
+        <v>1.0734376676078054E-25</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="14"/>
+        <v>0.10734376676078054</v>
+      </c>
+      <c r="X12" s="2">
+        <f>SQRT(POWER(M12/(L2*T12*B27*B25),2)+POWER(L12*M2/(POWER(L2,2)*T12*B27*B25),2)+POWER(L12*C27/(L2*T12*POWER(B27,2)*B25),2)+POWER(L12*C25/(L2*T12*B27*POWER(B25,2)),2)+POWER(L12*U12/(L2*POWER(T12,2)*B27*B25),2))</f>
+        <v>2.3772614603616846E-26</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="8"/>
+        <v>2.3772614603616845E-2</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="9"/>
+        <v>7.5216422611297101E-2</v>
+      </c>
+      <c r="AA12" s="13">
         <f t="shared" si="10"/>
-        <v>2431.0955305372413</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0.46079999999999999</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="5"/>
-        <v>2.3040000000000001E-2</v>
-      </c>
-      <c r="T12" s="2">
-        <f>L12/(L2*R12*B27*B25)</f>
-        <v>1.0734376676078054E-25</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" si="12"/>
-        <v>0.10734376676078054</v>
-      </c>
-      <c r="V12" s="2">
-        <f>SQRT(POWER(M12/(L2*R12*B27*B25),2)+POWER(L12*M2/(POWER(L2,2)*R12*B27*B25),2)+POWER(L12*C27/(L2*R12*POWER(B27,2)*B25),2)+POWER(L12*C25/(L2*R12*B27*POWER(B25,2)),2)+POWER(L12*S12/(L2*POWER(R12,2)*B27*B25),2))</f>
-        <v>2.3772614603616846E-26</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" si="6"/>
-        <v>2.3772614603616845E-2</v>
-      </c>
-      <c r="X12" s="11">
-        <f t="shared" si="7"/>
-        <v>7.5216422611297101E-2</v>
-      </c>
-      <c r="Y12" s="13">
-        <f t="shared" si="8"/>
         <v>1.8263993819538786</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AB12" s="2">
         <f t="shared" si="1"/>
         <v>0.98072368440096847</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>-20</v>
       </c>
@@ -2189,7 +2292,7 @@
         <v>5098.508161576673</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>576.79132013326102</v>
       </c>
       <c r="L13" s="2">
@@ -2205,54 +2308,62 @@
         <v>0.53572753110810722</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1035365174744559E-3</v>
       </c>
       <c r="P13" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6103536517474456E-2</v>
+      </c>
+      <c r="Q13" s="11">
         <f t="shared" si="0"/>
         <v>0.61408675979992799</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="R13" s="13">
+        <f t="shared" si="12"/>
+        <v>5042.0469658466527</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="6"/>
+        <v>9.0111787685075715</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="7"/>
+        <v>2.4390000000000002E-2</v>
+      </c>
+      <c r="V13" s="2">
+        <f>L13/(L2*T13*B27*B25)</f>
+        <v>8.1639675082086461E-26</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="14"/>
+        <v>8.1639675082086458E-2</v>
+      </c>
+      <c r="X13" s="2">
+        <f>SQRT(POWER(M13/(L2*T13*B27*B25),2)+POWER(L13*M2/(POWER(L2,2)*T13*B27*B25),2)+POWER(L13*C27/(L2*T13*POWER(B27,2)*B25),2)+POWER(L13*C25/(L2*T13*B27*POWER(B25,2)),2)+POWER(L13*U13/(L2*POWER(T13,2)*B27*B25),2))</f>
+        <v>1.5344371520184826E-26</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" si="8"/>
+        <v>1.5344371520184827E-2</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="9"/>
+        <v>6.450641222663403E-2</v>
+      </c>
+      <c r="AA13" s="13">
         <f t="shared" si="10"/>
-        <v>5042.0469658466527</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0.48780000000000001</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="5"/>
-        <v>2.4390000000000002E-2</v>
-      </c>
-      <c r="T13" s="2">
-        <f>L13/(L2*R13*B27*B25)</f>
-        <v>8.1639675082086461E-26</v>
-      </c>
-      <c r="U13" s="11">
-        <f t="shared" si="12"/>
-        <v>8.1639675082086458E-2</v>
-      </c>
-      <c r="V13" s="2">
-        <f>SQRT(POWER(M13/(L2*R13*B27*B25),2)+POWER(L13*M2/(POWER(L2,2)*R13*B27*B25),2)+POWER(L13*C27/(L2*R13*POWER(B27,2)*B25),2)+POWER(L13*C25/(L2*R13*B27*POWER(B25,2)),2)+POWER(L13*S13/(L2*POWER(R13,2)*B27*B25),2))</f>
-        <v>1.5344371520184826E-26</v>
-      </c>
-      <c r="W13" s="11">
-        <f t="shared" si="6"/>
-        <v>1.5344371520184827E-2</v>
-      </c>
-      <c r="X13" s="11">
-        <f t="shared" si="7"/>
-        <v>6.450641222663403E-2</v>
-      </c>
-      <c r="Y13" s="13">
-        <f t="shared" si="8"/>
         <v>1.246757373266189</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AB13" s="2">
         <f t="shared" si="1"/>
         <v>0.92762350422949846</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>-30</v>
       </c>
@@ -2285,7 +2396,7 @@
         <v>6170.6500346086623</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>663.06653941579521</v>
       </c>
       <c r="L14" s="2">
@@ -2301,54 +2412,62 @@
         <v>0.53980711240511592</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.248187483494017E-3</v>
       </c>
       <c r="P14" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6248187483494018E-2</v>
+      </c>
+      <c r="Q14" s="11">
         <f t="shared" si="0"/>
         <v>0.56420536684069378</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="R14" s="13">
+        <f t="shared" si="12"/>
+        <v>382.08313231198446</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="6"/>
+        <v>0.86401020717965593</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="7"/>
+        <v>2.3040000000000001E-2</v>
+      </c>
+      <c r="V14" s="2">
+        <f>L14/(L2*T14*B27*B25)</f>
+        <v>7.8447598655060789E-26</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="14"/>
+        <v>7.8447598655060791E-2</v>
+      </c>
+      <c r="X14" s="2">
+        <f>SQRT(POWER(M14/(L2*T14*B27*B25),2)+POWER(L14*M2/(POWER(L2,2)*T14*B27*B25),2)+POWER(L14*C27/(L2*T14*POWER(B27,2)*B25),2)+POWER(L14*C25/(L2*T14*B27*POWER(B25,2)),2))+POWER(L14*U14/(L2*POWER(T14,2)*B27*B25),2)</f>
+        <v>1.3939496969267884E-26</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="8"/>
+        <v>1.3939496969267884E-2</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="9"/>
+        <v>5.1192746571714881E-2</v>
+      </c>
+      <c r="AA14" s="13">
         <f t="shared" si="10"/>
-        <v>382.08313231198446</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0.46079999999999999</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="5"/>
-        <v>2.3040000000000001E-2</v>
-      </c>
-      <c r="T14" s="2">
-        <f>L14/(L2*R14*B27*B25)</f>
-        <v>7.8447598655060789E-26</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="12"/>
-        <v>7.8447598655060791E-2</v>
-      </c>
-      <c r="V14" s="2">
-        <f>SQRT(POWER(M14/(L2*R14*B27*B25),2)+POWER(L14*M2/(POWER(L2,2)*R14*B27*B25),2)+POWER(L14*C27/(L2*R14*POWER(B27,2)*B25),2)+POWER(L14*C25/(L2*R14*B27*POWER(B25,2)),2))+POWER(L14*S14/(L2*POWER(R14,2)*B27*B25),2)</f>
-        <v>1.3939496969267884E-26</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" si="6"/>
-        <v>1.3939496969267884E-2</v>
-      </c>
-      <c r="X14" s="11">
-        <f t="shared" si="7"/>
-        <v>5.1192746571714881E-2</v>
-      </c>
-      <c r="Y14" s="13">
-        <f t="shared" si="8"/>
         <v>3.8229045542098246</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AB14" s="2">
         <f t="shared" si="1"/>
         <v>0.85227396803730171</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>-40</v>
       </c>
@@ -2381,7 +2500,7 @@
         <v>8535.2667382780091</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>869.15658300412088</v>
       </c>
       <c r="L15" s="2">
@@ -2397,54 +2516,62 @@
         <v>0.49143790509861013</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2328199505901207E-3</v>
       </c>
       <c r="P15" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6232819950590121E-2</v>
+      </c>
+      <c r="Q15" s="11">
         <f t="shared" si="0"/>
         <v>0.50818177295976652</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="R15" s="13">
+        <f t="shared" si="12"/>
+        <v>184.46427452288523</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" si="6"/>
+        <v>0.40740055756280508</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0.504</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="7"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="V15" s="2">
+        <f>L15/(L2*T15*B27*B25)</f>
+        <v>6.1051228058312059E-26</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="14"/>
+        <v>6.1051228058312056E-2</v>
+      </c>
+      <c r="X15" s="2">
+        <f>SQRT(POWER(M15/(L2*T15*B27*B25),2)+POWER(L15*M2/(POWER(L2,2)*T15*B27*B25),2)+POWER(L15*C27/(L2*T15*POWER(B27,2)*B25),2)+POWER(L15*C25/(L2*T15*B27*POWER(B25,2)),2)+POWER(L15*U15/(L2*POWER(T15,2)*B27*B25),2))</f>
+        <v>1.1073256759218936E-26</v>
+      </c>
+      <c r="Y15" s="11">
+        <f t="shared" si="8"/>
+        <v>1.1073256759218936E-2</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="9"/>
+        <v>3.8760419859286056E-2</v>
+      </c>
+      <c r="AA15" s="13">
         <f t="shared" si="10"/>
-        <v>184.46427452288523</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0.504</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="5"/>
-        <v>2.52E-2</v>
-      </c>
-      <c r="T15" s="2">
-        <f>L15/(L2*R15*B27*B25)</f>
-        <v>6.1051228058312059E-26</v>
-      </c>
-      <c r="U15" s="11">
-        <f t="shared" si="12"/>
-        <v>6.1051228058312056E-2</v>
-      </c>
-      <c r="V15" s="2">
-        <f>SQRT(POWER(M15/(L2*R15*B27*B25),2)+POWER(L15*M2/(POWER(L2,2)*R15*B27*B25),2)+POWER(L15*C27/(L2*R15*POWER(B27,2)*B25),2)+POWER(L15*C25/(L2*R15*B27*POWER(B25,2)),2)+POWER(L15*S15/(L2*POWER(R15,2)*B27*B25),2))</f>
-        <v>1.1073256759218936E-26</v>
-      </c>
-      <c r="W15" s="11">
-        <f t="shared" si="6"/>
-        <v>1.1073256759218936E-2</v>
-      </c>
-      <c r="X15" s="11">
-        <f t="shared" si="7"/>
-        <v>3.8760419859286056E-2</v>
-      </c>
-      <c r="Y15" s="13">
-        <f t="shared" si="8"/>
         <v>4.0522934694670854</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AB15" s="2">
         <f t="shared" si="1"/>
         <v>0.76764618271868046</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2487,6 +2614,9 @@
         <v>64</v>
       </c>
       <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
@@ -2500,15 +2630,19 @@
         <v>61</v>
       </c>
       <c r="I20" s="4">
-        <f>SUM(Q2:Q15)</f>
+        <f>SUM(R2:R15)</f>
         <v>20789.150318594446</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K20" s="4">
-        <f>SUM(Y3:Y15)</f>
+        <f>SUM(AA3:AA15)</f>
         <v>26.738956960082977</v>
+      </c>
+      <c r="L20" s="4">
+        <f>SUM(S2:S15)</f>
+        <v>35.915530560456673</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2530,6 +2664,9 @@
       <c r="K21">
         <v>13</v>
       </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
       <c r="O21" s="9" t="s">
         <v>43</v>
       </c>
@@ -2557,6 +2694,10 @@
       <c r="K22">
         <f>K20/K21</f>
         <v>2.0568428430833059</v>
+      </c>
+      <c r="L22">
+        <f>L20/L21</f>
+        <v>2.5653950400326195</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2727,6 +2868,7 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DATA.new.xlsx
+++ b/DATA.new.xlsx
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1145,19 +1145,19 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2">
         <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/(B17*T2)</f>
-        <v>466991.61160205182</v>
+        <v>442140.61674961442</v>
       </c>
       <c r="K2" s="2">
         <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2/T2,2)+POWER(G2*D2/T2,2)+POWER(C2*G2*U2/POWER(T2,2),2)))</f>
-        <v>46762.286461201053</v>
+        <v>44273.827758165971</v>
       </c>
       <c r="L2" s="2">
         <f>J2/B2</f>
-        <v>7783.1935267008639</v>
+        <v>7369.0102791602403</v>
       </c>
       <c r="M2" s="2">
         <f>K2/B2</f>
-        <v>779.37144102001753</v>
+        <v>737.89712930276619</v>
       </c>
       <c r="N2" s="11">
         <f>(E2+61.6)/11540.4</f>
@@ -1184,27 +1184,27 @@
         <v>0.13083539949272774</v>
       </c>
       <c r="T2" s="4">
-        <v>0.38429999999999997</v>
+        <v>0.40589999999999998</v>
       </c>
       <c r="U2" s="4">
         <f>T2*0.05</f>
-        <v>1.9214999999999999E-2</v>
+        <v>2.0295000000000001E-2</v>
       </c>
       <c r="V2" s="2">
         <f>L2/(L2*T2*B27*B25)</f>
-        <v>9.4915827816779713E-23</v>
+        <v>8.9864874673536425E-23</v>
       </c>
       <c r="W2" s="11">
         <f>V2*1E+24</f>
-        <v>94.915827816779711</v>
+        <v>89.86487467353642</v>
       </c>
       <c r="X2" s="2">
         <f>SQRT(POWER(M2/(L2*T2*B27*B25),2)+POWER(L2*M2/(POWER(L2,2)*T2*B27*B25),2)+POWER(L2*C27/(L2*T2*POWER(B27,2)*B25),2)+POWER(L2*C25/(L2*T2*B27*POWER(B25,2)),2))</f>
-        <v>1.6454934815612501E-23</v>
+        <v>1.5579284182409179E-23</v>
       </c>
       <c r="Y2" s="11">
         <f>X2*1E+24</f>
-        <v>16.4549348156125</v>
+        <v>15.579284182409179</v>
       </c>
       <c r="Z2" s="11">
         <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(AB2,2)*(AB2+1/AB2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="AA2" s="13">
         <f>POWER((W2-Z2)/Y2,2)</f>
-        <v>33.216830283527621</v>
+        <v>33.213704783202196</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" ref="AB2:AB15" si="1">1/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
@@ -1296,19 +1296,19 @@
       </c>
       <c r="V3" s="2">
         <f>L3/(L2*T3*B27*B25)</f>
-        <v>1.1027686396938746E-25</v>
+        <v>1.1647509519951697E-25</v>
       </c>
       <c r="W3" s="11">
         <f>V3*1E+24</f>
-        <v>0.11027686396938746</v>
+        <v>0.11647509519951697</v>
       </c>
       <c r="X3" s="2">
         <f>SQRT(POWER(M3/(L2*T3*B27*B25),2)+POWER(L3*M2/(POWER(L2,2)*T3*B27*B25),2)+POWER(L3*C27/(L2*T3*POWER(B27,2)*B25),2)+POWER(L3*C25/(L2*T3*B27*POWER(B25,2)),2)+POWER(L3*U3/(L2*POWER(T3,2)*B27*B25),2))</f>
-        <v>2.460449021491582E-26</v>
+        <v>2.5987412381562144E-26</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y15" si="8">X3*1E+24</f>
-        <v>2.4604490214915817E-2</v>
+        <v>2.5987412381562144E-2</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z15" si="9">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(AB3,2)*(AB3+1/AB3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AA3" s="13">
         <f t="shared" ref="AA3:AA15" si="10">POWER((W3-Z3)/Y3,2)</f>
-        <v>2.0305141268420011</v>
+        <v>2.5206028705470716</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="1"/>
@@ -1392,27 +1392,27 @@
         <v>1.920757324366824E-2</v>
       </c>
       <c r="T4" s="4">
-        <v>0.43380000000000002</v>
+        <v>0.42120000000000002</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="7"/>
-        <v>2.1690000000000001E-2</v>
+        <v>2.1060000000000002E-2</v>
       </c>
       <c r="V4" s="2">
         <f>L4/(L2*T4*B27*B25)</f>
-        <v>9.8520347671986592E-26</v>
+        <v>1.0717063100558357E-25</v>
       </c>
       <c r="W4" s="11">
         <f>V4*1E+24</f>
-        <v>9.8520347671986586E-2</v>
+        <v>0.10717063100558356</v>
       </c>
       <c r="X4" s="2">
         <f>SQRT(POWER(M4/(L2*T4*B27*B25),2)+POWER(L4*M2/(POWER(L2,2)*T4*B27*B25),2)+POWER(L4*C27/(L2*T4*POWER(B27,2)*B25),2)+POWER(L4*C25/(L2*T4*B27*POWER(B25,2)),2)+POWER(L4*U4/(L2*POWER(T4,2)*B27*B25),2))</f>
-        <v>1.7385341299552656E-26</v>
+        <v>1.8911808995272905E-26</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="8"/>
-        <v>1.7385341299552656E-2</v>
+        <v>1.8911808995272904E-2</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="9"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="AA4" s="13">
         <f t="shared" si="10"/>
-        <v>3.8277831329508429</v>
+        <v>5.0893398132282481</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="1"/>
@@ -1496,27 +1496,27 @@
         <v>4.5046095369574208E-4</v>
       </c>
       <c r="T5" s="4">
-        <v>0.44819999999999999</v>
+        <v>0.46079999999999999</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="7"/>
-        <v>2.2409999999999999E-2</v>
+        <v>2.3040000000000001E-2</v>
       </c>
       <c r="V5" s="2">
         <f>L5/(L2*T5*B27*B25)</f>
-        <v>8.5042738219826426E-26</v>
+        <v>8.7366569629576684E-26</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" ref="W5:W15" si="14">V5*1E+24</f>
-        <v>8.5042738219826428E-2</v>
+        <v>8.7366569629576687E-2</v>
       </c>
       <c r="X5" s="2">
         <f>SQRT(POWER(M5/(L2*T5*B27*B25),2)+POWER(L5*M2/(POWER(L2,2)*T5*B27*B25),2)+POWER(L5*C27/(L2*T5*POWER(B27,2)*B25),2)+POWER(L5*C25/(L2*T5*B27*POWER(B25,2)),2)+POWER(L5*U5/(L2*POWER(T5,2)*B27*B25),2))</f>
-        <v>1.5456754410878626E-26</v>
+        <v>1.587911723861295E-26</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="8"/>
-        <v>1.5456754410878626E-2</v>
+        <v>1.587911723861295E-2</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="9"/>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="AA5" s="13">
         <f t="shared" si="10"/>
-        <v>4.7960148439948123</v>
+        <v>5.1896265820465155</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="1"/>
@@ -1600,27 +1600,27 @@
         <v>5.1892745478269999</v>
       </c>
       <c r="T6" s="4">
-        <v>0.5544</v>
+        <v>0.504</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="7"/>
-        <v>2.7720000000000002E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="V6" s="2">
         <f>L6/(L2*T6*B27*B25)</f>
-        <v>4.9199939327068512E-26</v>
+        <v>5.7161803044868141E-26</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="14"/>
-        <v>4.9199939327068509E-2</v>
+        <v>5.7161803044868141E-2</v>
       </c>
       <c r="X6" s="2">
         <f>SQRT(POWER(M6/(L2*T6*B27*B25),2)+POWER(L6*M2/(POWER(L2,2)*T6*B27*B25),2)+POWER(L6*C27/(L2*T6*POWER(B27,2)*B25),2)+POWER(L6*C25/(L2*T6*B27*POWER(B25,2)),2)+POWER(L6*U6/(L2*POWER(T6,2)*B27*B25),2))</f>
-        <v>9.3385906482735598E-27</v>
+        <v>1.0849823935851321E-26</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="8"/>
-        <v>9.3385906482735589E-3</v>
+        <v>1.0849823935851322E-2</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="9"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="AA6" s="13">
         <f t="shared" si="10"/>
-        <v>1.249678619026199</v>
+        <v>2.8764415703301003</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="1"/>
@@ -1704,27 +1704,27 @@
         <v>3.8941994367224462</v>
       </c>
       <c r="T7" s="4">
-        <v>0.60929999999999995</v>
+        <v>0.5544</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="7"/>
-        <v>3.0464999999999999E-2</v>
+        <v>2.7720000000000002E-2</v>
       </c>
       <c r="V7" s="2">
         <f>L7/(L2*T7*B27*B25)</f>
-        <v>3.4516841583037877E-26</v>
+        <v>4.0067078112260882E-26</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="14"/>
-        <v>3.4516841583037874E-2</v>
+        <v>4.006707811226088E-2</v>
       </c>
       <c r="X7" s="2">
         <f>SQRT(POWER(M7/(L2*T7*B27*B25),2)+POWER(L7*M2/(POWER(L2,2)*T7*B27*B25),2)+POWER(L7*C27/(L2*T7*POWER(B27,2)*B25),2)+POWER(L7*C25/(L2*T7*B27*POWER(B25,2)),2)+POWER(L7*U7/(L2*POWER(T7,2)*B27*B25),2))</f>
-        <v>7.0785570531895322E-27</v>
+        <v>8.216774344487364E-27</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="8"/>
-        <v>7.0785570531895319E-3</v>
+        <v>8.2167743444873636E-3</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="9"/>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="AA7" s="13">
         <f t="shared" si="10"/>
-        <v>0.6186703443709366</v>
+        <v>1.830813970931277</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="1"/>
@@ -1808,27 +1808,27 @@
         <v>2.8673726518399776</v>
       </c>
       <c r="T8" s="4">
-        <v>0.66239999999999999</v>
+        <v>0.60929999999999995</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="7"/>
-        <v>3.3120000000000004E-2</v>
+        <v>3.0464999999999999E-2</v>
       </c>
       <c r="V8" s="2">
         <f>L8/(L2*T8*B27*B25)</f>
-        <v>2.9454795453138688E-26</v>
+        <v>3.3821574668284608E-26</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="14"/>
-        <v>2.9454795453138689E-2</v>
+        <v>3.3821574668284608E-2</v>
       </c>
       <c r="X8" s="2">
         <f>SQRT(POWER(M8/(L2*T8*B27*B25),2)+POWER(L8*M2/(POWER(L2,2)*T8*B27*B25),2)+POWER(L8*C27/(L2*T8*POWER(B27,2)*B25),2)+POWER(L8*C25/(L2*T8*B27*POWER(B25,2)),2)+POWER(L8*U8/(L2*POWER(T8,2)*B27*B25),2))</f>
-        <v>6.3005202249277359E-27</v>
+        <v>7.2345949770879719E-27</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="8"/>
-        <v>6.3005202249277357E-3</v>
+        <v>7.2345949770879717E-3</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="9"/>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="AA8" s="13">
         <f t="shared" si="10"/>
-        <v>1.3956050753799336</v>
+        <v>2.6648163830246312</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="1"/>
@@ -1912,27 +1912,27 @@
         <v>1.8317086972870662</v>
       </c>
       <c r="T9" s="4">
-        <v>0.69750000000000001</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="U9" s="4">
         <f t="shared" si="7"/>
-        <v>3.4875000000000003E-2</v>
+        <v>3.3120000000000004E-2</v>
       </c>
       <c r="V9" s="2">
         <f>L9/(L2*T9*B27*B25)</f>
-        <v>2.4515898006132092E-26</v>
+        <v>2.7265932856230659E-26</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="14"/>
-        <v>2.4515898006132093E-2</v>
+        <v>2.7265932856230659E-2</v>
       </c>
       <c r="X9" s="2">
         <f>SQRT(POWER(M9/(L2*T9*B27*B25),2)+POWER(L9*M2/(POWER(L2,2)*T9*B27*B25),2)+POWER(L9*C27/(L2*T9*POWER(B27,2)*B25),2)+POWER(L9*C25/(L2*T9*B27*POWER(B25,2)),2)+POWER(L9*U9/(L2*POWER(T9,2)*B27*B25),2))</f>
-        <v>5.692866681994198E-27</v>
+        <v>6.3314556404134706E-27</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="8"/>
-        <v>5.6928666819941976E-3</v>
+        <v>6.3314556404134702E-3</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="9"/>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="AA9" s="13">
         <f t="shared" si="10"/>
-        <v>1.5319652986410537</v>
+        <v>2.3939329090650809</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="1"/>
@@ -2016,27 +2016,27 @@
         <v>2.1580936427924606</v>
       </c>
       <c r="T10" s="4">
-        <v>0.73260000000000003</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="7"/>
-        <v>3.6630000000000003E-2</v>
+        <v>3.4875000000000003E-2</v>
       </c>
       <c r="V10" s="2">
         <f>L10/(L2*T10*B27*B25)</f>
-        <v>1.6772499562455111E-26</v>
+        <v>1.8606691559631778E-26</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="14"/>
-        <v>1.677249956245511E-2</v>
+        <v>1.8606691559631777E-2</v>
       </c>
       <c r="X10" s="2">
         <f>SQRT(POWER(M10/(L2*T10*B27*B25),2)+POWER(L10*M2/(POWER(L2,2)*T10*B27*B25),2)+POWER(L10*C27/(L2*T10*POWER(B27,2)*B25),2)+POWER(L10*C25/(L2*T10*B27*POWER(B25,2)),2)+POWER(L10*U10/(L2*POWER(T10,2)*B27*B25),2))</f>
-        <v>3.913019391400378E-27</v>
+        <v>4.3409358641823936E-27</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="8"/>
-        <v>3.9130193914003776E-3</v>
+        <v>4.3409358641823938E-3</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="9"/>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="AA10" s="13">
         <f t="shared" si="10"/>
-        <v>0.2880669748636252</v>
+        <v>0.82146009217383864</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="1"/>
@@ -2120,27 +2120,27 @@
         <v>0.24302702065583023</v>
       </c>
       <c r="T11" s="4">
-        <v>0.76590000000000003</v>
+        <v>0.73260000000000003</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="7"/>
-        <v>3.8295000000000003E-2</v>
+        <v>3.6630000000000003E-2</v>
       </c>
       <c r="V11" s="2">
         <f>L11/(L2*T11*B27*B25)</f>
-        <v>1.3704707646793601E-26</v>
+        <v>1.5132950012794341E-26</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="14"/>
-        <v>1.37047076467936E-2</v>
+        <v>1.5132950012794341E-2</v>
       </c>
       <c r="X11" s="2">
         <f>SQRT(POWER(M11/(L2*T11*B27*B25),2)+POWER(L11*M2/(POWER(L2,2)*T11*B27*B25),2)+POWER(L11*C27/(L2*T11*POWER(B27,2)*B25),2)+POWER(L11*C25/(L2*T11*B27*POWER(B25,2)),2)+POWER(L11*U11/(L2*POWER(T11,2)*B27*B25),2))</f>
-        <v>2.8662378652951461E-27</v>
+        <v>3.1649441533645471E-27</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="8"/>
-        <v>2.8662378652951461E-3</v>
+        <v>3.164944153364547E-3</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="9"/>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="AA11" s="13">
         <f t="shared" si="10"/>
-        <v>5.2303765116596956E-2</v>
+        <v>0.43347067512657983</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="1"/>
@@ -2224,27 +2224,27 @@
         <v>9.2606978506796338</v>
       </c>
       <c r="T12" s="4">
-        <v>0.46079999999999999</v>
+        <v>0.40589999999999998</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="7"/>
-        <v>2.3040000000000001E-2</v>
+        <v>2.0295000000000001E-2</v>
       </c>
       <c r="V12" s="2">
         <f>L12/(L2*T12*B27*B25)</f>
-        <v>1.0734376676078054E-25</v>
+        <v>1.2871196389114671E-25</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="14"/>
-        <v>0.10734376676078054</v>
+        <v>0.1287119638911467</v>
       </c>
       <c r="X12" s="2">
         <f>SQRT(POWER(M12/(L2*T12*B27*B25),2)+POWER(L12*M2/(POWER(L2,2)*T12*B27*B25),2)+POWER(L12*C27/(L2*T12*POWER(B27,2)*B25),2)+POWER(L12*C25/(L2*T12*B27*POWER(B25,2)),2)+POWER(L12*U12/(L2*POWER(T12,2)*B27*B25),2))</f>
-        <v>2.3772614603616846E-26</v>
+        <v>2.8504868096140109E-26</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="8"/>
-        <v>2.3772614603616845E-2</v>
+        <v>2.8504868096140109E-2</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="9"/>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="AA12" s="13">
         <f t="shared" si="10"/>
-        <v>1.8263993819538786</v>
+        <v>3.5220628453629339</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="1"/>
@@ -2328,27 +2328,27 @@
         <v>9.0111787685075715</v>
       </c>
       <c r="T13" s="4">
-        <v>0.48780000000000001</v>
+        <v>0.42120000000000002</v>
       </c>
       <c r="U13" s="4">
         <f t="shared" si="7"/>
-        <v>2.4390000000000002E-2</v>
+        <v>2.1060000000000002E-2</v>
       </c>
       <c r="V13" s="2">
         <f>L13/(L2*T13*B27*B25)</f>
-        <v>8.1639675082086461E-26</v>
+        <v>9.9862714708137599E-26</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="14"/>
-        <v>8.1639675082086458E-2</v>
+        <v>9.9862714708137595E-2</v>
       </c>
       <c r="X13" s="2">
         <f>SQRT(POWER(M13/(L2*T13*B27*B25),2)+POWER(L13*M2/(POWER(L2,2)*T13*B27*B25),2)+POWER(L13*C27/(L2*T13*POWER(B27,2)*B25),2)+POWER(L13*C25/(L2*T13*B27*POWER(B25,2)),2)+POWER(L13*U13/(L2*POWER(T13,2)*B27*B25),2))</f>
-        <v>1.5344371520184826E-26</v>
+        <v>1.8769435252592228E-26</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="8"/>
-        <v>1.5344371520184827E-2</v>
+        <v>1.8769435252592226E-2</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="9"/>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="AA13" s="13">
         <f t="shared" si="10"/>
-        <v>1.246757373266189</v>
+        <v>3.5483893779605085</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="1"/>
@@ -2440,19 +2440,19 @@
       </c>
       <c r="V14" s="2">
         <f>L14/(L2*T14*B27*B25)</f>
-        <v>7.8447598655060789E-26</v>
+        <v>8.285683136635227E-26</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="14"/>
-        <v>7.8447598655060791E-2</v>
+        <v>8.2856831366352274E-2</v>
       </c>
       <c r="X14" s="2">
         <f>SQRT(POWER(M14/(L2*T14*B27*B25),2)+POWER(L14*M2/(POWER(L2,2)*T14*B27*B25),2)+POWER(L14*C27/(L2*T14*POWER(B27,2)*B25),2)+POWER(L14*C25/(L2*T14*B27*POWER(B25,2)),2))+POWER(L14*U14/(L2*POWER(T14,2)*B27*B25),2)</f>
-        <v>1.3939496969267884E-26</v>
+        <v>1.4722981576439854E-26</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="8"/>
-        <v>1.3939496969267884E-2</v>
+        <v>1.4722981576439854E-2</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="9"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="AA14" s="13">
         <f t="shared" si="10"/>
-        <v>3.8229045542098246</v>
+        <v>4.6253259425271134</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="1"/>
@@ -2544,19 +2544,19 @@
       </c>
       <c r="V15" s="2">
         <f>L15/(L2*T15*B27*B25)</f>
-        <v>6.1051228058312059E-26</v>
+        <v>6.4482678815687928E-26</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="14"/>
-        <v>6.1051228058312056E-2</v>
+        <v>6.4482678815687922E-2</v>
       </c>
       <c r="X15" s="2">
         <f>SQRT(POWER(M15/(L2*T15*B27*B25),2)+POWER(L15*M2/(POWER(L2,2)*T15*B27*B25),2)+POWER(L15*C27/(L2*T15*POWER(B27,2)*B25),2)+POWER(L15*C25/(L2*T15*B27*POWER(B25,2)),2)+POWER(L15*U15/(L2*POWER(T15,2)*B27*B25),2))</f>
-        <v>1.1073256759218936E-26</v>
+        <v>1.1695641214069653E-26</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="8"/>
-        <v>1.1073256759218936E-2</v>
+        <v>1.1695641214069652E-2</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="9"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="AA15" s="13">
         <f t="shared" si="10"/>
-        <v>4.0522934694670854</v>
+        <v>4.8369337412351046</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="1"/>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="K20" s="4">
         <f>SUM(AA3:AA15)</f>
-        <v>26.738956960082977</v>
+        <v>40.353216773559012</v>
       </c>
       <c r="L20" s="4">
         <f>SUM(S2:S15)</f>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="K22">
         <f>K20/K21</f>
-        <v>2.0568428430833059</v>
+        <v>3.1040935979660778</v>
       </c>
       <c r="L22">
         <f>L20/L21</f>
@@ -2739,11 +2739,11 @@
       </c>
       <c r="B26" s="2">
         <f>L2</f>
-        <v>7783.1935267008639</v>
+        <v>7369.0102791602403</v>
       </c>
       <c r="C26" s="2">
         <f>M2</f>
-        <v>779.37144102001753</v>
+        <v>737.89712930276619</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2868,7 +2868,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DATA.new.xlsx
+++ b/DATA.new.xlsx
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1172,7 +1172,7 @@
         <v>2.5124030244967552E-2</v>
       </c>
       <c r="Q2" s="11">
-        <f t="shared" ref="Q2:Q15" si="0">0.662/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
+        <f>0.662/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>0.66200000000000003</v>
       </c>
       <c r="R2" s="13">
@@ -1215,7 +1215,7 @@
         <v>33.213704783202196</v>
       </c>
       <c r="AB2" s="2">
-        <f t="shared" ref="AB2:AB15" si="1">1/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
+        <f t="shared" ref="AB2:AB15" si="0">1/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>1</v>
       </c>
     </row>
@@ -1256,15 +1256,15 @@
         <v>315.34605191871367</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L15" si="2">J3/B3</f>
+        <f t="shared" ref="L3:L15" si="1">J3/B3</f>
         <v>9.5510751771421951</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M15" si="3">K3/B3</f>
+        <f t="shared" ref="M3:M15" si="2">K3/B3</f>
         <v>1.5767302595935684</v>
       </c>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N15" si="4">(E3+61.6)/11540.4</f>
+        <f t="shared" ref="N3:N15" si="3">(E3+61.6)/11540.4</f>
         <v>0.64402966968216013</v>
       </c>
       <c r="O3" s="11">
@@ -1272,11 +1272,11 @@
         <v>1.6978129586738197E-3</v>
       </c>
       <c r="P3" s="11">
-        <f t="shared" ref="P3:P15" si="5">O3+0.025</f>
+        <f t="shared" ref="P3:P15" si="4">O3+0.025</f>
         <v>2.6697812958673822E-2</v>
       </c>
       <c r="Q3" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q3:Q15" si="5">0.662/(1+(1.0606413726E-13/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.64923907907344114</v>
       </c>
       <c r="R3" s="13">
@@ -1319,7 +1319,7 @@
         <v>2.5206028705470716</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98072368440096847</v>
       </c>
     </row>
@@ -1360,15 +1360,15 @@
         <v>507.76705531487812</v>
       </c>
       <c r="L4" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1193584856344803</v>
+      </c>
+      <c r="M4" s="2">
         <f t="shared" si="2"/>
-        <v>9.1193584856344803</v>
-      </c>
-      <c r="M4" s="2">
+        <v>0.84627842552479682</v>
+      </c>
+      <c r="N4" s="11">
         <f t="shared" si="3"/>
-        <v>0.84627842552479682</v>
-      </c>
-      <c r="N4" s="11">
-        <f t="shared" si="4"/>
         <v>0.61049010432913942</v>
       </c>
       <c r="O4" s="11">
@@ -1376,11 +1376,11 @@
         <v>9.5150740426510033E-4</v>
       </c>
       <c r="P4" s="11">
+        <f t="shared" si="4"/>
+        <v>2.5951507404265103E-2</v>
+      </c>
+      <c r="Q4" s="11">
         <f t="shared" si="5"/>
-        <v>2.5951507404265103E-2</v>
-      </c>
-      <c r="Q4" s="11">
-        <f t="shared" si="0"/>
         <v>0.61408675979992799</v>
       </c>
       <c r="R4" s="13">
@@ -1423,7 +1423,7 @@
         <v>5.0893398132282481</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92762350422949846</v>
       </c>
     </row>
@@ -1468,11 +1468,11 @@
         <v>8.1331333370195207</v>
       </c>
       <c r="M5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83364592047211683</v>
+      </c>
+      <c r="N5" s="11">
         <f t="shared" si="3"/>
-        <v>0.83364592047211683</v>
-      </c>
-      <c r="N5" s="11">
-        <f t="shared" si="4"/>
         <v>0.56365637239610422</v>
       </c>
       <c r="O5" s="11">
@@ -1480,11 +1480,11 @@
         <v>8.6660158045304321E-4</v>
       </c>
       <c r="P5" s="11">
+        <f t="shared" si="4"/>
+        <v>2.5866601580453046E-2</v>
+      </c>
+      <c r="Q5" s="11">
         <f t="shared" si="5"/>
-        <v>2.5866601580453046E-2</v>
-      </c>
-      <c r="Q5" s="11">
-        <f t="shared" si="0"/>
         <v>0.56420536684069378</v>
       </c>
       <c r="R5" s="13">
@@ -1527,7 +1527,7 @@
         <v>5.1896265820465155</v>
       </c>
       <c r="AB5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85227396803730171</v>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
         <v>879.10496572965008</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.8201823782477788</v>
       </c>
       <c r="M6" s="2">
@@ -1576,7 +1576,7 @@
         <v>0.67623458902280775</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.44842466465633773</v>
       </c>
       <c r="O6" s="11">
@@ -1584,11 +1584,11 @@
         <v>1.2322926807150111E-3</v>
       </c>
       <c r="P6" s="11">
+        <f t="shared" si="4"/>
+        <v>2.6232292680715013E-2</v>
+      </c>
+      <c r="Q6" s="11">
         <f t="shared" si="5"/>
-        <v>2.6232292680715013E-2</v>
-      </c>
-      <c r="Q6" s="11">
-        <f t="shared" si="0"/>
         <v>0.50818177295976652</v>
       </c>
       <c r="R6" s="13">
@@ -1631,7 +1631,7 @@
         <v>2.8764415703301003</v>
       </c>
       <c r="AB6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.76764618271868046</v>
       </c>
     </row>
@@ -1676,11 +1676,11 @@
         <v>4.4875678951763485</v>
       </c>
       <c r="M7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.62710630135256873</v>
+      </c>
+      <c r="N7" s="11">
         <f t="shared" si="3"/>
-        <v>0.62710630135256873</v>
-      </c>
-      <c r="N7" s="11">
-        <f t="shared" si="4"/>
         <v>0.40097396970642274</v>
       </c>
       <c r="O7" s="11">
@@ -1688,11 +1688,11 @@
         <v>1.24152912099627E-3</v>
       </c>
       <c r="P7" s="11">
+        <f t="shared" si="4"/>
+        <v>2.6241529120996272E-2</v>
+      </c>
+      <c r="Q7" s="11">
         <f t="shared" si="5"/>
-        <v>2.6241529120996272E-2</v>
-      </c>
-      <c r="Q7" s="11">
-        <f t="shared" si="0"/>
         <v>0.45275828437751853</v>
       </c>
       <c r="R7" s="13">
@@ -1735,7 +1735,7 @@
         <v>1.830813970931277</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.68392490087238444</v>
       </c>
     </row>
@@ -1776,15 +1776,15 @@
         <v>1142.0838563081095</v>
       </c>
       <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1631795330806307</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>4.1631795330806307</v>
-      </c>
-      <c r="M8" s="2">
+        <v>0.63449103128228301</v>
+      </c>
+      <c r="N8" s="11">
         <f t="shared" si="3"/>
-        <v>0.63449103128228301</v>
-      </c>
-      <c r="N8" s="11">
-        <f t="shared" si="4"/>
         <v>0.35727271151779832</v>
       </c>
       <c r="O8" s="11">
@@ -1792,11 +1792,11 @@
         <v>1.3970171498388832E-3</v>
       </c>
       <c r="P8" s="11">
+        <f t="shared" si="4"/>
+        <v>2.6397017149838886E-2</v>
+      </c>
+      <c r="Q8" s="11">
         <f t="shared" si="5"/>
-        <v>2.6397017149838886E-2</v>
-      </c>
-      <c r="Q8" s="11">
-        <f t="shared" si="0"/>
         <v>0.40197162060459124</v>
       </c>
       <c r="R8" s="13">
@@ -1839,7 +1839,7 @@
         <v>2.6648163830246312</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.60720788610965448</v>
       </c>
     </row>
@@ -1880,15 +1880,15 @@
         <v>1357.6411072417354</v>
       </c>
       <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6487223986373549</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="2"/>
-        <v>3.6487223986373549</v>
-      </c>
-      <c r="M9" s="2">
+        <v>0.6464957653532073</v>
+      </c>
+      <c r="N9" s="11">
         <f t="shared" si="3"/>
-        <v>0.6464957653532073</v>
-      </c>
-      <c r="N9" s="11">
-        <f t="shared" si="4"/>
         <v>0.32163529860316797</v>
       </c>
       <c r="O9" s="11">
@@ -1896,11 +1896,11 @@
         <v>1.5676468023221558E-3</v>
       </c>
       <c r="P9" s="11">
+        <f t="shared" si="4"/>
+        <v>2.6567646802322157E-2</v>
+      </c>
+      <c r="Q9" s="11">
         <f t="shared" si="5"/>
-        <v>2.6567646802322157E-2</v>
-      </c>
-      <c r="Q9" s="11">
-        <f t="shared" si="0"/>
         <v>0.35759211999007279</v>
       </c>
       <c r="R9" s="13">
@@ -1943,7 +1943,7 @@
         <v>2.3939329090650809</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.54016936554391659</v>
       </c>
     </row>
@@ -1984,15 +1984,15 @@
         <v>3371.6901474905908</v>
       </c>
       <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6218842121750261</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="2"/>
-        <v>2.6218842121750261</v>
-      </c>
-      <c r="M10" s="2">
+        <v>0.46829029826258206</v>
+      </c>
+      <c r="N10" s="11">
         <f t="shared" si="3"/>
-        <v>0.46829029826258206</v>
-      </c>
-      <c r="N10" s="11">
-        <f t="shared" si="4"/>
         <v>0.28177099580603793</v>
       </c>
       <c r="O10" s="11">
@@ -2000,11 +2000,11 @@
         <v>9.8566059400125375E-4</v>
       </c>
       <c r="P10" s="11">
+        <f t="shared" si="4"/>
+        <v>2.5985660594001255E-2</v>
+      </c>
+      <c r="Q10" s="11">
         <f t="shared" si="5"/>
-        <v>2.5985660594001255E-2</v>
-      </c>
-      <c r="Q10" s="11">
-        <f t="shared" si="0"/>
         <v>0.31994510438323459</v>
       </c>
       <c r="R10" s="13">
@@ -2047,7 +2047,7 @@
         <v>0.82146009217383864</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.48330076190820936</v>
       </c>
     </row>
@@ -2088,15 +2088,15 @@
         <v>3523.0050607091171</v>
       </c>
       <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2397041250592054</v>
+      </c>
+      <c r="M11" s="2">
         <f t="shared" si="2"/>
-        <v>2.2397041250592054</v>
-      </c>
-      <c r="M11" s="2">
+        <v>0.32620417228788123</v>
+      </c>
+      <c r="N11" s="11">
         <f t="shared" si="3"/>
-        <v>0.32620417228788123</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" si="4"/>
         <v>0.27585612283802985</v>
       </c>
       <c r="O11" s="11">
@@ -2104,11 +2104,11 @@
         <v>8.6802814005650303E-4</v>
       </c>
       <c r="P11" s="11">
+        <f t="shared" si="4"/>
+        <v>2.5868028140056506E-2</v>
+      </c>
+      <c r="Q11" s="11">
         <f t="shared" si="5"/>
-        <v>2.5868028140056506E-2</v>
-      </c>
-      <c r="Q11" s="11">
-        <f t="shared" si="0"/>
         <v>0.2886084840628545</v>
       </c>
       <c r="R11" s="13">
@@ -2151,7 +2151,7 @@
         <v>0.43347067512657983</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4359644774363361</v>
       </c>
     </row>
@@ -2192,15 +2192,15 @@
         <v>343.74529963574275</v>
       </c>
       <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>10.554510740825323</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="2"/>
-        <v>10.554510740825323</v>
-      </c>
-      <c r="M12" s="2">
+        <v>1.7187264981787138</v>
+      </c>
+      <c r="N12" s="11">
         <f t="shared" si="3"/>
-        <v>1.7187264981787138</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" si="4"/>
         <v>0.56815621642230774</v>
       </c>
       <c r="O12" s="11">
@@ -2208,11 +2208,11 @@
         <v>1.6444779731217909E-3</v>
       </c>
       <c r="P12" s="11">
+        <f t="shared" si="4"/>
+        <v>2.6644477973121791E-2</v>
+      </c>
+      <c r="Q12" s="11">
         <f t="shared" si="5"/>
-        <v>2.6644477973121791E-2</v>
-      </c>
-      <c r="Q12" s="11">
-        <f t="shared" si="0"/>
         <v>0.64923907907344114</v>
       </c>
       <c r="R12" s="13">
@@ -2255,7 +2255,7 @@
         <v>3.5220628453629339</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98072368440096847</v>
       </c>
     </row>
@@ -2296,15 +2296,15 @@
         <v>576.79132013326102</v>
       </c>
       <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>8.4975136026277891</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="2"/>
-        <v>8.4975136026277891</v>
-      </c>
-      <c r="M13" s="2">
+        <v>0.96131886688876833</v>
+      </c>
+      <c r="N13" s="11">
         <f t="shared" si="3"/>
-        <v>0.96131886688876833</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" si="4"/>
         <v>0.53572753110810722</v>
       </c>
       <c r="O13" s="11">
@@ -2312,11 +2312,11 @@
         <v>1.1035365174744559E-3</v>
       </c>
       <c r="P13" s="11">
+        <f t="shared" si="4"/>
+        <v>2.6103536517474456E-2</v>
+      </c>
+      <c r="Q13" s="11">
         <f t="shared" si="5"/>
-        <v>2.6103536517474456E-2</v>
-      </c>
-      <c r="Q13" s="11">
-        <f t="shared" si="0"/>
         <v>0.61408675979992799</v>
       </c>
       <c r="R13" s="13">
@@ -2359,7 +2359,7 @@
         <v>3.5483893779605085</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92762350422949846</v>
       </c>
     </row>
@@ -2400,15 +2400,15 @@
         <v>663.06653941579521</v>
       </c>
       <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7133125432608276</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="2"/>
-        <v>7.7133125432608276</v>
-      </c>
-      <c r="M14" s="2">
+        <v>0.82883317426974401</v>
+      </c>
+      <c r="N14" s="11">
         <f t="shared" si="3"/>
-        <v>0.82883317426974401</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="4"/>
         <v>0.53980711240511592</v>
       </c>
       <c r="O14" s="11">
@@ -2416,11 +2416,11 @@
         <v>1.248187483494017E-3</v>
       </c>
       <c r="P14" s="11">
+        <f t="shared" si="4"/>
+        <v>2.6248187483494018E-2</v>
+      </c>
+      <c r="Q14" s="11">
         <f t="shared" si="5"/>
-        <v>2.6248187483494018E-2</v>
-      </c>
-      <c r="Q14" s="11">
-        <f t="shared" si="0"/>
         <v>0.56420536684069378</v>
       </c>
       <c r="R14" s="13">
@@ -2463,7 +2463,7 @@
         <v>4.6253259425271134</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.85227396803730171</v>
       </c>
     </row>
@@ -2504,15 +2504,15 @@
         <v>869.15658300412088</v>
       </c>
       <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5655897986753917</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="2"/>
-        <v>6.5655897986753917</v>
-      </c>
-      <c r="M15" s="2">
+        <v>0.66858198692624682</v>
+      </c>
+      <c r="N15" s="11">
         <f t="shared" si="3"/>
-        <v>0.66858198692624682</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" si="4"/>
         <v>0.49143790509861013</v>
       </c>
       <c r="O15" s="11">
@@ -2520,11 +2520,11 @@
         <v>1.2328199505901207E-3</v>
       </c>
       <c r="P15" s="11">
+        <f t="shared" si="4"/>
+        <v>2.6232819950590121E-2</v>
+      </c>
+      <c r="Q15" s="11">
         <f t="shared" si="5"/>
-        <v>2.6232819950590121E-2</v>
-      </c>
-      <c r="Q15" s="11">
-        <f t="shared" si="0"/>
         <v>0.50818177295976652</v>
       </c>
       <c r="R15" s="13">
@@ -2567,7 +2567,7 @@
         <v>4.8369337412351046</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.76764618271868046</v>
       </c>
     </row>
